--- a/datasets/excess_return.xlsx
+++ b/datasets/excess_return.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="308">
   <si>
     <t>date</t>
   </si>
@@ -26,6 +26,18 @@
   </si>
   <si>
     <t>excess_return</t>
+  </si>
+  <si>
+    <t>excess_cum_2m</t>
+  </si>
+  <si>
+    <t>excess_cum_3m</t>
+  </si>
+  <si>
+    <t>excess_cum_4m</t>
+  </si>
+  <si>
+    <t>excess_cum_5m</t>
   </si>
   <si>
     <t>2000-01</t>
@@ -1283,13 +1295,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D301"/>
+  <dimension ref="A1:H301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1302,10 +1314,22 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>0.160838</v>
@@ -1317,9 +1341,9 @@
         <v>0.158982</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>0.122024</v>
@@ -1330,10 +1354,13 @@
       <c r="D3">
         <v>0.120168</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0.298254548976</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>0.055926</v>
@@ -1344,10 +1371,16 @@
       <c r="D4">
         <v>0.05407</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4">
+        <v>0.1807354837600001</v>
+      </c>
+      <c r="F4">
+        <v>0.3684511724391324</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0.013014</v>
@@ -1358,10 +1391,19 @@
       <c r="D5">
         <v>0.011158</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0.06583131306000012</v>
+      </c>
+      <c r="F5">
+        <v>0.1939101302877941</v>
+      </c>
+      <c r="G5">
+        <v>0.3837203506212081</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>0.027691</v>
@@ -1372,10 +1414,22 @@
       <c r="D6">
         <v>0.025835</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6">
+        <v>0.03728126693</v>
+      </c>
+      <c r="F6">
+        <v>0.09336706503290526</v>
+      </c>
+      <c r="G6">
+        <v>0.2247547985037794</v>
+      </c>
+      <c r="H6">
+        <v>0.4194687658795071</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <v>0.023721</v>
@@ -1386,10 +1440,22 @@
       <c r="D7">
         <v>0.021865</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7">
+        <v>0.04826488227500003</v>
+      </c>
+      <c r="F7">
+        <v>0.05996142183142439</v>
+      </c>
+      <c r="G7">
+        <v>0.1172735359098498</v>
+      </c>
+      <c r="H7">
+        <v>0.2515340621730646</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <v>0.043245</v>
@@ -1400,10 +1466,22 @@
       <c r="D8">
         <v>0.041389</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8">
+        <v>0.06415897048499986</v>
+      </c>
+      <c r="F8">
+        <v>0.09165151748747991</v>
+      </c>
+      <c r="G8">
+        <v>0.103832165119605</v>
+      </c>
+      <c r="H8">
+        <v>0.1635163702876226</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B9">
         <v>-0.004691</v>
@@ -1414,10 +1492,22 @@
       <c r="D9">
         <v>-0.006547</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9">
+        <v>0.03457102621700003</v>
+      </c>
+      <c r="F9">
+        <v>0.05719192170523457</v>
+      </c>
+      <c r="G9">
+        <v>0.08450447500248948</v>
+      </c>
+      <c r="H9">
+        <v>0.09660537593456708</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B10">
         <v>-0.045222</v>
@@ -1428,10 +1518,22 @@
       <c r="D10">
         <v>-0.04707799999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10">
+        <v>-0.05331678033399989</v>
+      </c>
+      <c r="F10">
+        <v>-0.0141345085552439</v>
+      </c>
+      <c r="G10">
+        <v>0.007421440415195546</v>
+      </c>
+      <c r="H10">
+        <v>0.03344817332832228</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B11">
         <v>0.024222</v>
@@ -1442,10 +1544,22 @@
       <c r="D11">
         <v>0.022366</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11">
+        <v>-0.02576494654799988</v>
+      </c>
+      <c r="F11">
+        <v>-0.03214326344295004</v>
+      </c>
+      <c r="G11">
+        <v>0.007915359026409607</v>
+      </c>
+      <c r="H11">
+        <v>0.02995342835152193</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B12">
         <v>0.054174</v>
@@ -1456,10 +1570,22 @@
       <c r="D12">
         <v>0.052318</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12">
+        <v>0.07585414438800031</v>
+      </c>
+      <c r="F12">
+        <v>0.02520508297850199</v>
+      </c>
+      <c r="G12">
+        <v>0.01849306530024175</v>
+      </c>
+      <c r="H12">
+        <v>0.06064747477995347</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B13">
         <v>-0.002105</v>
@@ -1470,10 +1596,22 @@
       <c r="D13">
         <v>-0.003961</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13">
+        <v>0.04814976840200003</v>
+      </c>
+      <c r="F13">
+        <v>0.07159268612207947</v>
+      </c>
+      <c r="G13">
+        <v>0.02114424564482409</v>
+      </c>
+      <c r="H13">
+        <v>0.01445881426858753</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B14">
         <v>-0.010399</v>
@@ -1484,10 +1622,22 @@
       <c r="D14">
         <v>-0.012255</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14">
+        <v>-0.01616745794499996</v>
+      </c>
+      <c r="F14">
+        <v>0.03530469299023342</v>
+      </c>
+      <c r="G14">
+        <v>0.05846031775365335</v>
+      </c>
+      <c r="H14">
+        <v>0.008630122914446758</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>-0.059406</v>
@@ -1498,10 +1648,22 @@
       <c r="D15">
         <v>-0.061262</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>-0.07276623419000006</v>
+      </c>
+      <c r="F15">
+        <v>-0.07643900713637342</v>
+      </c>
+      <c r="G15">
+        <v>-0.02812014311173427</v>
+      </c>
+      <c r="H15">
+        <v>-0.006383078232571004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B16">
         <v>0.07591299999999999</v>
@@ -1512,10 +1674,22 @@
       <c r="D16">
         <v>0.074057</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16">
+        <v>0.008258120065999908</v>
+      </c>
+      <c r="F16">
+        <v>-0.00409808319540883</v>
+      </c>
+      <c r="G16">
+        <v>-0.008042850687871805</v>
+      </c>
+      <c r="H16">
+        <v>0.04385436344984006</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>-0.005454</v>
@@ -1526,10 +1700,22 @@
       <c r="D17">
         <v>-0.00731</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0.06620564333000001</v>
+      </c>
+      <c r="F17">
+        <v>0.0008877532083173545</v>
+      </c>
+      <c r="G17">
+        <v>-0.01137812620725043</v>
+      </c>
+      <c r="H17">
+        <v>-0.01529405744934353</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0.035145</v>
@@ -1540,10 +1726,22 @@
       <c r="D18">
         <v>0.03328900000000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0.02573565740999983</v>
+      </c>
+      <c r="F18">
+        <v>0.1016985629908123</v>
+      </c>
+      <c r="G18">
+        <v>0.03420630562486893</v>
+      </c>
+      <c r="H18">
+        <v>0.02153210734943634</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B19">
         <v>0.00281</v>
@@ -1554,10 +1752,22 @@
       <c r="D19">
         <v>0.0009540000000000002</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0.03427475770599986</v>
+      </c>
+      <c r="F19">
+        <v>0.02671420922716883</v>
+      </c>
+      <c r="G19">
+        <v>0.1027495834199055</v>
+      </c>
+      <c r="H19">
+        <v>0.03519293844043503</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B20">
         <v>-0.132502</v>
@@ -1568,10 +1778,22 @@
       <c r="D20">
         <v>-0.134358</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20">
+        <v>-0.1335321775320001</v>
+      </c>
+      <c r="F20">
+        <v>-0.1046883301898629</v>
+      </c>
+      <c r="G20">
+        <v>-0.1112330584961752</v>
+      </c>
+      <c r="H20">
+        <v>-0.04541364510922619</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B21">
         <v>-0.035222</v>
@@ -1582,10 +1804,22 @@
       <c r="D21">
         <v>-0.037078</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21">
+        <v>-0.1664542740759999</v>
+      </c>
+      <c r="F21">
+        <v>-0.1656590714534686</v>
+      </c>
+      <c r="G21">
+        <v>-0.1378846962830831</v>
+      </c>
+      <c r="H21">
+        <v>-0.144186759153254</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B22">
         <v>-0.052001</v>
@@ -1596,10 +1830,22 @@
       <c r="D22">
         <v>-0.053857</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22">
+        <v>-0.088938090154</v>
+      </c>
+      <c r="F22">
+        <v>-0.2113465462370888</v>
+      </c>
+      <c r="G22">
+        <v>-0.2105941708421991</v>
+      </c>
+      <c r="H22">
+        <v>-0.1843156401953652</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B23">
         <v>-0.048524</v>
@@ -1610,10 +1856,22 @@
       <c r="D23">
         <v>-0.05037999999999999</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23">
+        <v>-0.10152368434</v>
+      </c>
+      <c r="F23">
+        <v>-0.1348373891720415</v>
+      </c>
+      <c r="G23">
+        <v>-0.2510789072376642</v>
+      </c>
+      <c r="H23">
+        <v>-0.2503644365151692</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B24">
         <v>0.038675</v>
@@ -1624,10 +1882,22 @@
       <c r="D24">
         <v>0.036819</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24">
+        <v>-0.01541594122000001</v>
+      </c>
+      <c r="F24">
+        <v>-0.06844268487371452</v>
+      </c>
+      <c r="G24">
+        <v>-0.1029829670039669</v>
+      </c>
+      <c r="H24">
+        <v>-0.2235043815232478</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B25">
         <v>-0.06274299999999999</v>
@@ -1638,10 +1908,22 @@
       <c r="D25">
         <v>-0.06459899999999999</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25">
+        <v>-0.03015847058100007</v>
+      </c>
+      <c r="F25">
+        <v>-0.07901908683312919</v>
+      </c>
+      <c r="G25">
+        <v>-0.1286203558735574</v>
+      </c>
+      <c r="H25">
+        <v>-0.1609293703184776</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B26">
         <v>-0.107725</v>
@@ -1652,10 +1934,22 @@
       <c r="D26">
         <v>-0.109581</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26">
+        <v>-0.167101176981</v>
+      </c>
+      <c r="F26">
+        <v>-0.1364346752162635</v>
+      </c>
+      <c r="G26">
+        <v>-0.1799410962788681</v>
+      </c>
+      <c r="H26">
+        <v>-0.2241070086565771</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0.028367</v>
@@ -1666,10 +1960,22 @@
       <c r="D27">
         <v>0.026511</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>-0.08597510189100011</v>
+      </c>
+      <c r="F27">
+        <v>-0.1450201962839434</v>
+      </c>
+      <c r="G27">
+        <v>-0.1135406948909219</v>
+      </c>
+      <c r="H27">
+        <v>-0.1582005146823172</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B28">
         <v>0.066092</v>
@@ -1680,10 +1986,22 @@
       <c r="D28">
         <v>0.064457</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28">
+        <v>0.09267681952700002</v>
+      </c>
+      <c r="F28">
+        <v>-0.02705979903358835</v>
+      </c>
+      <c r="G28">
+        <v>-0.08991076307581747</v>
+      </c>
+      <c r="H28">
+        <v>-0.05640218746150605</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B29">
         <v>0.039324</v>
@@ -1694,10 +2012,22 @@
       <c r="D29">
         <v>0.037689</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29">
+        <v>0.1045753198730002</v>
+      </c>
+      <c r="F29">
+        <v>0.1338587161781533</v>
+      </c>
+      <c r="G29">
+        <v>0.009609344200634862</v>
+      </c>
+      <c r="H29">
+        <v>-0.0556104098253819</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B30">
         <v>-0.085132</v>
@@ -1708,10 +2038,22 @@
       <c r="D30">
         <v>-0.086767</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30">
+        <v>-0.05234816146299992</v>
+      </c>
+      <c r="F30">
+        <v>0.00873463309357958</v>
+      </c>
+      <c r="G30">
+        <v>0.03547719695152329</v>
+      </c>
+      <c r="H30">
+        <v>-0.07799142976762163</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B31">
         <v>0.132984</v>
@@ -1722,10 +2064,22 @@
       <c r="D31">
         <v>0.131349</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31">
+        <v>0.03318524131699996</v>
+      </c>
+      <c r="F31">
+        <v>0.07212495987699641</v>
+      </c>
+      <c r="G31">
+        <v>0.1412309184157881</v>
+      </c>
+      <c r="H31">
+        <v>0.1714860912939089</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B32">
         <v>-0.040172</v>
@@ -1736,10 +2090,22 @@
       <c r="D32">
         <v>-0.041807</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="E32">
+        <v>0.08405069235699991</v>
+      </c>
+      <c r="F32">
+        <v>-0.01000913406673987</v>
+      </c>
+      <c r="G32">
+        <v>0.02730263167941871</v>
+      </c>
+      <c r="H32">
+        <v>0.09351947740957911</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B33">
         <v>0.006221</v>
@@ -1750,10 +2116,22 @@
       <c r="D33">
         <v>0.004586</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="E33">
+        <v>-0.03741272690200004</v>
+      </c>
+      <c r="F33">
+        <v>0.08902214883214898</v>
+      </c>
+      <c r="G33">
+        <v>-0.005469035955569912</v>
+      </c>
+      <c r="H33">
+        <v>0.03201384154830045</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B34">
         <v>-0.055632</v>
@@ -1764,10 +2142,22 @@
       <c r="D34">
         <v>-0.057267</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="E34">
+        <v>-0.05294362646200002</v>
+      </c>
+      <c r="F34">
+        <v>-0.09253721227050316</v>
+      </c>
+      <c r="G34">
+        <v>0.02665711743497834</v>
+      </c>
+      <c r="H34">
+        <v>-0.06242284067350223</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B35">
         <v>-0.051183</v>
@@ -1778,10 +2168,22 @@
       <c r="D35">
         <v>-0.052818</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>-0.107060271594</v>
+      </c>
+      <c r="F35">
+        <v>-0.1029652499995302</v>
+      </c>
+      <c r="G35">
+        <v>-0.1404675817927997</v>
+      </c>
+      <c r="H35">
+        <v>-0.02756885819370236</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B36">
         <v>-0.062693</v>
@@ -1792,10 +2194,22 @@
       <c r="D36">
         <v>-0.064328</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="E36">
+        <v>-0.113748323696</v>
+      </c>
+      <c r="F36">
+        <v>-0.1645012984429011</v>
+      </c>
+      <c r="G36">
+        <v>-0.1606697013975603</v>
+      </c>
+      <c r="H36">
+        <v>-0.1957595831912324</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>-0.051492</v>
@@ -1806,10 +2220,22 @@
       <c r="D37">
         <v>-0.053127</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>-0.1140374463439999</v>
+      </c>
+      <c r="F37">
+        <v>-0.1608322165030026</v>
+      </c>
+      <c r="G37">
+        <v>-0.208888837960525</v>
+      </c>
+      <c r="H37">
+        <v>-0.2052608021714122</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B38">
         <v>0.09549199999999999</v>
@@ -1820,10 +2246,22 @@
       <c r="D38">
         <v>0.093857</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0.03574365916100009</v>
+      </c>
+      <c r="F38">
+        <v>-0.03088365894550871</v>
+      </c>
+      <c r="G38">
+        <v>-0.08207044584732481</v>
+      </c>
+      <c r="H38">
+        <v>-0.134637517624986</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B39">
         <v>0.00971</v>
@@ -1834,10 +2272,22 @@
       <c r="D39">
         <v>0.008074999999999999</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="E39">
+        <v>0.1026898952750002</v>
+      </c>
+      <c r="F39">
+        <v>0.04410728920872531</v>
+      </c>
+      <c r="G39">
+        <v>-0.02305804449149362</v>
+      </c>
+      <c r="H39">
+        <v>-0.07465816469754194</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B40">
         <v>-0.013132</v>
@@ -1848,10 +2298,22 @@
       <c r="D40">
         <v>-0.014767</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="E40">
+        <v>-0.006811243524999955</v>
+      </c>
+      <c r="F40">
+        <v>0.08640647359147424</v>
+      </c>
+      <c r="G40">
+        <v>0.0286889568689801</v>
+      </c>
+      <c r="H40">
+        <v>-0.03748454634848775</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B41">
         <v>-0.012054</v>
@@ -1862,10 +2324,22 @@
       <c r="D41">
         <v>-0.013689</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="E41">
+        <v>-0.02825385453699991</v>
+      </c>
+      <c r="F41">
+        <v>-0.02040700441238619</v>
+      </c>
+      <c r="G41">
+        <v>0.07153465537448067</v>
+      </c>
+      <c r="H41">
+        <v>0.01460723373840067</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0.043905</v>
@@ -1876,10 +2350,22 @@
       <c r="D42">
         <v>0.04227</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0.02800236597000016</v>
+      </c>
+      <c r="F42">
+        <v>0.01282185503172117</v>
+      </c>
+      <c r="G42">
+        <v>0.02100039151110233</v>
+      </c>
+      <c r="H42">
+        <v>0.1168284252571601</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B43">
         <v>-0.06690500000000001</v>
@@ -1890,10 +2376,22 @@
       <c r="D43">
         <v>-0.06854</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="E43">
+        <v>-0.0291671858</v>
+      </c>
+      <c r="F43">
+        <v>-0.04245691619358372</v>
+      </c>
+      <c r="G43">
+        <v>-0.056596954912153</v>
+      </c>
+      <c r="H43">
+        <v>-0.04897897532306872</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B44">
         <v>-0.012312</v>
@@ -1904,10 +2402,22 @@
       <c r="D44">
         <v>-0.013947</v>
       </c>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="E44">
+        <v>-0.08153107262000003</v>
+      </c>
+      <c r="F44">
+        <v>-0.04270739105964738</v>
+      </c>
+      <c r="G44">
+        <v>-0.05581176958343181</v>
+      </c>
+      <c r="H44">
+        <v>-0.06975459718199328</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>-0.031089</v>
@@ -1918,10 +2428,22 @@
       <c r="D45">
         <v>-0.032724</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>-0.04621459837200004</v>
+      </c>
+      <c r="F45">
+        <v>-0.1115870497995831</v>
+      </c>
+      <c r="G45">
+        <v>-0.07403383439461142</v>
+      </c>
+      <c r="H45">
+        <v>-0.08670938523558358</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B46">
         <v>-0.043389</v>
@@ -1932,10 +2454,22 @@
       <c r="D46">
         <v>-0.04502399999999999</v>
       </c>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="E46">
+        <v>-0.07627463462399997</v>
+      </c>
+      <c r="F46">
+        <v>-0.08915783229489904</v>
+      </c>
+      <c r="G46">
+        <v>-0.1515869544694066</v>
+      </c>
+      <c r="H46">
+        <v>-0.1157245350348284</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B47">
         <v>-0.03788</v>
@@ -1946,10 +2480,22 @@
       <c r="D47">
         <v>-0.03951499999999999</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
+      <c r="E47">
+        <v>-0.08275987663999995</v>
+      </c>
+      <c r="F47">
+        <v>-0.1127756424368326</v>
+      </c>
+      <c r="G47">
+        <v>-0.1251497605517661</v>
+      </c>
+      <c r="H47">
+        <v>-0.185111995963548</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B48">
         <v>0.020736</v>
@@ -1960,10 +2506,22 @@
       <c r="D48">
         <v>0.019101</v>
       </c>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="E48">
+        <v>-0.02116877601499989</v>
+      </c>
+      <c r="F48">
+        <v>-0.0652396730437006</v>
+      </c>
+      <c r="G48">
+        <v>-0.09582876998301848</v>
+      </c>
+      <c r="H48">
+        <v>-0.1084392461280653</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0.027138</v>
@@ -1974,10 +2532,22 @@
       <c r="D49">
         <v>0.025503</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0.04509113280300014</v>
+      </c>
+      <c r="F49">
+        <v>0.003794356690289602</v>
+      </c>
+      <c r="G49">
+        <v>-0.04140048042533406</v>
+      </c>
+      <c r="H49">
+        <v>-0.07276969110389531</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B50">
         <v>0.074728</v>
@@ -1988,10 +2558,22 @@
       <c r="D50">
         <v>0.07309300000000001</v>
       </c>
-    </row>
-    <row r="51" spans="1:4">
+      <c r="E50">
+        <v>0.1004600907790001</v>
+      </c>
+      <c r="F50">
+        <v>0.1214799789729699</v>
+      </c>
+      <c r="G50">
+        <v>0.07716469760385292</v>
+      </c>
+      <c r="H50">
+        <v>0.02866643425893711</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B51">
         <v>0.07147299999999999</v>
@@ -2002,10 +2584,22 @@
       <c r="D51">
         <v>0.069838</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0.1480356689340001</v>
+      </c>
+      <c r="F51">
+        <v>0.1773140225988239</v>
+      </c>
+      <c r="G51">
+        <v>0.1998018977444842</v>
+      </c>
+      <c r="H51">
+        <v>0.1523917257551108</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0.032334</v>
@@ -2016,10 +2610,22 @@
       <c r="D52">
         <v>0.030699</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0.1026809567620002</v>
+      </c>
+      <c r="F52">
+        <v>0.1832792159346051</v>
+      </c>
+      <c r="G52">
+        <v>0.2134563857785852</v>
+      </c>
+      <c r="H52">
+        <v>0.2366346162033421</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B53">
         <v>-0.09930899999999999</v>
@@ -2030,10 +2636,22 @@
       <c r="D53">
         <v>-0.100944</v>
       </c>
-    </row>
-    <row r="54" spans="1:4">
+      <c r="E53">
+        <v>-0.07334387985599999</v>
+      </c>
+      <c r="F53">
+        <v>-0.008628069737383171</v>
+      </c>
+      <c r="G53">
+        <v>0.06383427876130221</v>
+      </c>
+      <c r="H53">
+        <v>0.09096524437255171</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B54">
         <v>-0.022937</v>
@@ -2044,10 +2662,22 @@
       <c r="D54">
         <v>-0.024572</v>
       </c>
-    </row>
-    <row r="55" spans="1:4">
+      <c r="E54">
+        <v>-0.1230356040320001</v>
+      </c>
+      <c r="F54">
+        <v>-0.09611367404017834</v>
+      </c>
+      <c r="G54">
+        <v>-0.03298806080779626</v>
+      </c>
+      <c r="H54">
+        <v>0.03769374286357952</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B55">
         <v>-0.113236</v>
@@ -2058,10 +2688,22 @@
       <c r="D55">
         <v>-0.114871</v>
       </c>
-    </row>
-    <row r="56" spans="1:4">
+      <c r="E55">
+        <v>-0.136620389788</v>
+      </c>
+      <c r="F55">
+        <v>-0.2237733811612401</v>
+      </c>
+      <c r="G55">
+        <v>-0.199944000189509</v>
+      </c>
+      <c r="H55">
+        <v>-0.1440696892747438</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B56">
         <v>-0.00347</v>
@@ -2072,10 +2714,22 @@
       <c r="D56">
         <v>-0.005105</v>
       </c>
-    </row>
-    <row r="57" spans="1:4">
+      <c r="E56">
+        <v>-0.119389583545</v>
+      </c>
+      <c r="F56">
+        <v>-0.1410279426981322</v>
+      </c>
+      <c r="G56">
+        <v>-0.227736018050412</v>
+      </c>
+      <c r="H56">
+        <v>-0.2040282860685415</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>-0.044436</v>
@@ -2086,10 +2740,22 @@
       <c r="D57">
         <v>-0.046071</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>-0.05094080754499997</v>
+      </c>
+      <c r="F57">
+        <v>-0.1599601860414982</v>
+      </c>
+      <c r="G57">
+        <v>-0.1806016443500865</v>
+      </c>
+      <c r="H57">
+        <v>-0.2633149919628115</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B58">
         <v>0.053374</v>
@@ -2100,10 +2766,22 @@
       <c r="D58">
         <v>0.051739</v>
       </c>
-    </row>
-    <row r="59" spans="1:4">
+      <c r="E58">
+        <v>0.003284332530999912</v>
+      </c>
+      <c r="F58">
+        <v>-0.001837433986570769</v>
+      </c>
+      <c r="G58">
+        <v>-0.1164973661070993</v>
+      </c>
+      <c r="H58">
+        <v>-0.1382067928271157</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B59">
         <v>-0.054755</v>
@@ -2114,10 +2792,22 @@
       <c r="D59">
         <v>-0.05639</v>
       </c>
-    </row>
-    <row r="60" spans="1:4">
+      <c r="E59">
+        <v>-0.007568562209999907</v>
+      </c>
+      <c r="F59">
+        <v>-0.05329087098042307</v>
+      </c>
+      <c r="G59">
+        <v>-0.05812382108406799</v>
+      </c>
+      <c r="H59">
+        <v>-0.1663180796323199</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B60">
         <v>0.022747</v>
@@ -2128,10 +2818,22 @@
       <c r="D60">
         <v>0.020891</v>
       </c>
-    </row>
-    <row r="61" spans="1:4">
+      <c r="E60">
+        <v>-0.03667704348999989</v>
+      </c>
+      <c r="F60">
+        <v>0.01316432295687098</v>
+      </c>
+      <c r="G60">
+        <v>-0.03351317056607506</v>
+      </c>
+      <c r="H60">
+        <v>-0.03844708583033529</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B61">
         <v>-0.06854399999999999</v>
@@ -2142,10 +2844,22 @@
       <c r="D61">
         <v>-0.07039999999999999</v>
       </c>
-    </row>
-    <row r="62" spans="1:4">
+      <c r="E61">
+        <v>-0.05097972640000004</v>
+      </c>
+      <c r="F61">
+        <v>-0.1044949796283039</v>
+      </c>
+      <c r="G61">
+        <v>-0.05816244537929272</v>
+      </c>
+      <c r="H61">
+        <v>-0.1015538433582234</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>-0.058872</v>
@@ -2156,10 +2870,22 @@
       <c r="D62">
         <v>-0.060728</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>-0.1268527488</v>
+      </c>
+      <c r="F62">
+        <v>-0.1086118295751808</v>
+      </c>
+      <c r="G62">
+        <v>-0.1588772085054363</v>
+      </c>
+      <c r="H62">
+        <v>-0.115358356396299</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B63">
         <v>0.09578399999999999</v>
@@ -2170,10 +2896,22 @@
       <c r="D63">
         <v>0.093928</v>
       </c>
-    </row>
-    <row r="64" spans="1:4">
+      <c r="E63">
+        <v>0.02749594041600001</v>
+      </c>
+      <c r="F63">
+        <v>-0.04483977378928639</v>
+      </c>
+      <c r="G63">
+        <v>-0.0248855215035183</v>
+      </c>
+      <c r="H63">
+        <v>-0.07987222694593488</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B64">
         <v>-0.106051</v>
@@ -2184,10 +2922,22 @@
       <c r="D64">
         <v>-0.107907</v>
       </c>
-    </row>
-    <row r="65" spans="1:4">
+      <c r="E64">
+        <v>-0.02411448869599997</v>
+      </c>
+      <c r="F64">
+        <v>-0.0833780640264693</v>
+      </c>
+      <c r="G64">
+        <v>-0.1479082483190058</v>
+      </c>
+      <c r="H64">
+        <v>-0.1301071995346381</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B65">
         <v>-0.030869</v>
@@ -2198,10 +2948,22 @@
       <c r="D65">
         <v>-0.032725</v>
       </c>
-    </row>
-    <row r="66" spans="1:4">
+      <c r="E65">
+        <v>-0.137100743425</v>
+      </c>
+      <c r="F65">
+        <v>-0.05605034205342341</v>
+      </c>
+      <c r="G65">
+        <v>-0.1133745168812031</v>
+      </c>
+      <c r="H65">
+        <v>-0.1757929508927664</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B66">
         <v>-0.06929100000000001</v>
@@ -2212,10 +2974,22 @@
       <c r="D66">
         <v>-0.071147</v>
       </c>
-    </row>
-    <row r="67" spans="1:4">
+      <c r="E66">
+        <v>-0.101543714425</v>
+      </c>
+      <c r="F66">
+        <v>-0.1984934368325415</v>
+      </c>
+      <c r="G66">
+        <v>-0.1232095283673484</v>
+      </c>
+      <c r="H66">
+        <v>-0.1764552601286562</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B67">
         <v>0.013216</v>
@@ -2226,10 +3000,22 @@
       <c r="D67">
         <v>0.01136</v>
       </c>
-    </row>
-    <row r="68" spans="1:4">
+      <c r="E67">
+        <v>-0.06059522991999988</v>
+      </c>
+      <c r="F67">
+        <v>-0.09133725102086798</v>
+      </c>
+      <c r="G67">
+        <v>-0.1893883222749592</v>
+      </c>
+      <c r="H67">
+        <v>-0.1132491886096015</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B68">
         <v>-0.017531</v>
@@ -2240,10 +3026,22 @@
       <c r="D68">
         <v>-0.019387</v>
       </c>
-    </row>
-    <row r="69" spans="1:4">
+      <c r="E68">
+        <v>-0.008247236320000018</v>
+      </c>
+      <c r="F68">
+        <v>-0.07880747019754086</v>
+      </c>
+      <c r="G68">
+        <v>-0.1089534957353264</v>
+      </c>
+      <c r="H68">
+        <v>-0.2051036508710146</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B69">
         <v>0.08841400000000001</v>
@@ -2254,10 +3052,22 @@
       <c r="D69">
         <v>0.08655800000000001</v>
       </c>
-    </row>
-    <row r="70" spans="1:4">
+      <c r="E69">
+        <v>0.06549290005399988</v>
+      </c>
+      <c r="F69">
+        <v>0.07759689939861336</v>
+      </c>
+      <c r="G69">
+        <v>0.0009291127971002844</v>
+      </c>
+      <c r="H69">
+        <v>-0.03182629241918489</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0.004711</v>
@@ -2268,10 +3078,22 @@
       <c r="D70">
         <v>0.002855</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0.08966012309000004</v>
+      </c>
+      <c r="F70">
+        <v>0.06853488228365401</v>
+      </c>
+      <c r="G70">
+        <v>0.08067343854639653</v>
+      </c>
+      <c r="H70">
+        <v>0.00378676541413614</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B71">
         <v>-0.050997</v>
@@ -2282,10 +3104,22 @@
       <c r="D71">
         <v>-0.052853</v>
       </c>
-    </row>
-    <row r="72" spans="1:4">
+      <c r="E71">
+        <v>-0.050148895315</v>
+      </c>
+      <c r="F71">
+        <v>0.0320683166043243</v>
+      </c>
+      <c r="G71">
+        <v>0.01205960815031593</v>
+      </c>
+      <c r="H71">
+        <v>0.0235566052989038</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B72">
         <v>-0.001561</v>
@@ -2296,10 +3130,22 @@
       <c r="D72">
         <v>-0.003417</v>
       </c>
-    </row>
-    <row r="73" spans="1:4">
+      <c r="E72">
+        <v>-0.05608940129900009</v>
+      </c>
+      <c r="F72">
+        <v>-0.0533945365397086</v>
+      </c>
+      <c r="G72">
+        <v>0.02854173916648728</v>
+      </c>
+      <c r="H72">
+        <v>0.008601400469266274</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B73">
         <v>0.05065</v>
@@ -2310,10 +3156,22 @@
       <c r="D73">
         <v>0.048794</v>
       </c>
-    </row>
-    <row r="74" spans="1:4">
+      <c r="E73">
+        <v>0.04521027090199992</v>
+      </c>
+      <c r="F73">
+        <v>-0.01003222754598354</v>
+      </c>
+      <c r="G73">
+        <v>-0.007205869555627187</v>
+      </c>
+      <c r="H73">
+        <v>0.07872840478737686</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B74">
         <v>0.095752</v>
@@ -2324,10 +3182,22 @@
       <c r="D74">
         <v>0.09389600000000001</v>
       </c>
-    </row>
-    <row r="75" spans="1:4">
+      <c r="E74">
+        <v>0.1472715614239999</v>
+      </c>
+      <c r="F74">
+        <v>0.1433513344986141</v>
+      </c>
+      <c r="G74">
+        <v>0.08292178641635872</v>
+      </c>
+      <c r="H74">
+        <v>0.0860135281165777</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B75">
         <v>0.034405</v>
@@ -2338,10 +3208,22 @@
       <c r="D75">
         <v>0.032549</v>
       </c>
-    </row>
-    <row r="76" spans="1:4">
+      <c r="E75">
+        <v>0.1295012209039998</v>
+      </c>
+      <c r="F75">
+        <v>0.1846141034767896</v>
+      </c>
+      <c r="G75">
+        <v>0.1805662770852094</v>
+      </c>
+      <c r="H75">
+        <v>0.1181698076424247</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B76">
         <v>0.016889</v>
@@ -2352,10 +3234,22 @@
       <c r="D76">
         <v>0.015033</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0.04807130911699997</v>
+      </c>
+      <c r="F76">
+        <v>0.1464810127578497</v>
+      </c>
+      <c r="G76">
+        <v>0.2024224072943563</v>
+      </c>
+      <c r="H76">
+        <v>0.1983137299286315</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B77">
         <v>0.114996</v>
@@ -2366,10 +3260,22 @@
       <c r="D77">
         <v>0.11314</v>
       </c>
-    </row>
-    <row r="78" spans="1:4">
+      <c r="E77">
+        <v>0.12987383362</v>
+      </c>
+      <c r="F77">
+        <v>0.1666500970304974</v>
+      </c>
+      <c r="G77">
+        <v>0.2761938745412729</v>
+      </c>
+      <c r="H77">
+        <v>0.3384644784556399</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B78">
         <v>0.204596</v>
@@ -2380,10 +3286,22 @@
       <c r="D78">
         <v>0.20274</v>
       </c>
-    </row>
-    <row r="79" spans="1:4">
+      <c r="E78">
+        <v>0.3388180035999999</v>
+      </c>
+      <c r="F78">
+        <v>0.3589444546481189</v>
+      </c>
+      <c r="G78">
+        <v>0.4031767377024604</v>
+      </c>
+      <c r="H78">
+        <v>0.5349294206657704</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B79">
         <v>0.044123</v>
@@ -2394,10 +3312,22 @@
       <c r="D79">
         <v>0.04226700000000001</v>
       </c>
-    </row>
-    <row r="80" spans="1:4">
+      <c r="E79">
+        <v>0.25357621158</v>
+      </c>
+      <c r="F79">
+        <v>0.3954058241581613</v>
+      </c>
+      <c r="G79">
+        <v>0.4163829599127309</v>
+      </c>
+      <c r="H79">
+        <v>0.4624848088749305</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B80">
         <v>-0.055101</v>
@@ -2408,10 +3338,22 @@
       <c r="D80">
         <v>-0.05695699999999999</v>
       </c>
-    </row>
-    <row r="81" spans="1:4">
+      <c r="E80">
+        <v>-0.01709740151899997</v>
+      </c>
+      <c r="F80">
+        <v>0.1821762712970378</v>
+      </c>
+      <c r="G80">
+        <v>0.3159276946315848</v>
+      </c>
+      <c r="H80">
+        <v>0.3357100356649814</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B81">
         <v>0.037245</v>
@@ -2422,10 +3364,22 @@
       <c r="D81">
         <v>0.035389</v>
       </c>
-    </row>
-    <row r="82" spans="1:4">
+      <c r="E81">
+        <v>-0.02358365127300011</v>
+      </c>
+      <c r="F81">
+        <v>0.01768653853864399</v>
+      </c>
+      <c r="G81">
+        <v>0.2240123073619686</v>
+      </c>
+      <c r="H81">
+        <v>0.3624970598169017</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B82">
         <v>0.049844</v>
@@ -2436,10 +3390,22 @@
       <c r="D82">
         <v>0.047768</v>
       </c>
-    </row>
-    <row r="83" spans="1:4">
+      <c r="E82">
+        <v>0.08484746175199986</v>
+      </c>
+      <c r="F82">
+        <v>0.02305780487299125</v>
+      </c>
+      <c r="G82">
+        <v>0.06629938911155797</v>
+      </c>
+      <c r="H82">
+        <v>0.2824809272600353</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B83">
         <v>0.019122</v>
@@ -2450,10 +3416,22 @@
       <c r="D83">
         <v>0.017046</v>
       </c>
-    </row>
-    <row r="84" spans="1:4">
+      <c r="E83">
+        <v>0.06562825332799993</v>
+      </c>
+      <c r="F83">
+        <v>0.1033397715850244</v>
+      </c>
+      <c r="G83">
+        <v>0.04049684821485622</v>
+      </c>
+      <c r="H83">
+        <v>0.08447552849835338</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B84">
         <v>0.122421</v>
@@ -2464,10 +3442,22 @@
       <c r="D84">
         <v>0.120345</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0.1394424008699997</v>
+      </c>
+      <c r="F84">
+        <v>0.193871285474758</v>
+      </c>
+      <c r="G84">
+        <v>0.236121196396424</v>
+      </c>
+      <c r="H84">
+        <v>0.1657154414132731</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B85">
         <v>0.144407</v>
@@ -2478,10 +3468,22 @@
       <c r="D85">
         <v>0.142331</v>
       </c>
-    </row>
-    <row r="86" spans="1:4">
+      <c r="E85">
+        <v>0.279804824195</v>
+      </c>
+      <c r="F85">
+        <v>0.3016203772282275</v>
+      </c>
+      <c r="G85">
+        <v>0.3637961794076656</v>
+      </c>
+      <c r="H85">
+        <v>0.4120595624007235</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B86">
         <v>0.194285</v>
@@ -2492,10 +3494,22 @@
       <c r="D86">
         <v>0.192209</v>
       </c>
-    </row>
-    <row r="87" spans="1:4">
+      <c r="E86">
+        <v>0.3618972991790002</v>
+      </c>
+      <c r="F86">
+        <v>0.5257948296486967</v>
+      </c>
+      <c r="G86">
+        <v>0.5518035283148881</v>
+      </c>
+      <c r="H86">
+        <v>0.6259300792554336</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B87">
         <v>0.106152</v>
@@ -2506,10 +3520,22 @@
       <c r="D87">
         <v>0.104076</v>
       </c>
-    </row>
-    <row r="88" spans="1:4">
+      <c r="E87">
+        <v>0.3162893438840002</v>
+      </c>
+      <c r="F87">
+        <v>0.5036381224883539</v>
+      </c>
+      <c r="G87">
+        <v>0.6845934523392145</v>
+      </c>
+      <c r="H87">
+        <v>0.7133090323277884</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B88">
         <v>0.125709</v>
@@ -2520,10 +3546,22 @@
       <c r="D88">
         <v>0.123633</v>
       </c>
-    </row>
-    <row r="89" spans="1:4">
+      <c r="E88">
+        <v>0.2405762281079999</v>
+      </c>
+      <c r="F88">
+        <v>0.4790261443364106</v>
+      </c>
+      <c r="G88">
+        <v>0.6895374144859565</v>
+      </c>
+      <c r="H88">
+        <v>0.8928647946322685</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B89">
         <v>0.298338</v>
@@ -2534,10 +3572,22 @@
       <c r="D89">
         <v>0.296042</v>
       </c>
-    </row>
-    <row r="90" spans="1:4">
+      <c r="E89">
+        <v>0.4562755605859998</v>
+      </c>
+      <c r="F89">
+        <v>0.6078388958295484</v>
+      </c>
+      <c r="G89">
+        <v>0.9168800021580501</v>
+      </c>
+      <c r="H89">
+        <v>1.189711449745208</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B90">
         <v>0.102396</v>
@@ -2548,10 +3598,22 @@
       <c r="D90">
         <v>0.1001</v>
       </c>
-    </row>
-    <row r="91" spans="1:4">
+      <c r="E90">
+        <v>0.4257758041999999</v>
+      </c>
+      <c r="F90">
+        <v>0.6020487442006586</v>
+      </c>
+      <c r="G90">
+        <v>0.7687835693020864</v>
+      </c>
+      <c r="H90">
+        <v>1.108759690374071</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B91">
         <v>-0.084326</v>
@@ -2562,10 +3624,22 @@
       <c r="D91">
         <v>-0.086841</v>
       </c>
-    </row>
-    <row r="92" spans="1:4">
+      <c r="E91">
+        <v>0.00456621590000017</v>
+      </c>
+      <c r="F91">
+        <v>0.3019600075874678</v>
+      </c>
+      <c r="G91">
+        <v>0.4629252292055293</v>
+      </c>
+      <c r="H91">
+        <v>0.615180635360324</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B92">
         <v>0.196411</v>
@@ -2576,10 +3650,22 @@
       <c r="D92">
         <v>0.193896</v>
       </c>
-    </row>
-    <row r="93" spans="1:4">
+      <c r="E92">
+        <v>0.0902168774640002</v>
+      </c>
+      <c r="F92">
+        <v>0.1993475868981467</v>
+      </c>
+      <c r="G92">
+        <v>0.5544048452186474</v>
+      </c>
+      <c r="H92">
+        <v>0.7465805794475646</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B93">
         <v>0.160315</v>
@@ -2590,10 +3676,22 @@
       <c r="D93">
         <v>0.157581</v>
       </c>
-    </row>
-    <row r="94" spans="1:4">
+      <c r="E93">
+        <v>0.3820313255759999</v>
+      </c>
+      <c r="F93">
+        <v>0.2620143432316548</v>
+      </c>
+      <c r="G93">
+        <v>0.3883419789891436</v>
+      </c>
+      <c r="H93">
+        <v>0.799349515133047</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B94">
         <v>0.050194</v>
@@ -2604,10 +3702,22 @@
       <c r="D94">
         <v>0.047242</v>
       </c>
-    </row>
-    <row r="95" spans="1:4">
+      <c r="E94">
+        <v>0.2122674416020001</v>
+      </c>
+      <c r="F94">
+        <v>0.4473212494588614</v>
+      </c>
+      <c r="G94">
+        <v>0.3216344248346046</v>
+      </c>
+      <c r="H94">
+        <v>0.4539300307605487</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B95">
         <v>-0.01684</v>
@@ -2618,10 +3728,22 @@
       <c r="D95">
         <v>-0.020009</v>
       </c>
-    </row>
-    <row r="96" spans="1:4">
+      <c r="E95">
+        <v>0.02628773482200009</v>
+      </c>
+      <c r="F95">
+        <v>0.1880111823629858</v>
+      </c>
+      <c r="G95">
+        <v>0.4183617985784391</v>
+      </c>
+      <c r="H95">
+        <v>0.2951898416280891</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>-0.144869</v>
@@ -2632,10 +3754,22 @@
       <c r="D96">
         <v>-0.148038</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>-0.165084907658</v>
+      </c>
+      <c r="F96">
+        <v>-0.1256418488655792</v>
+      </c>
+      <c r="G96">
+        <v>0.01214038294833397</v>
+      </c>
+      <c r="H96">
+        <v>0.2083903546404842</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B97">
         <v>0.149498</v>
@@ -2646,10 +3780,22 @@
       <c r="D97">
         <v>0.146329</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>-0.02337125250200012</v>
+      </c>
+      <c r="F97">
+        <v>-0.0429126171106875</v>
+      </c>
+      <c r="G97">
+        <v>0.00230210503176953</v>
+      </c>
+      <c r="H97">
+        <v>0.1602458730447807</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B98">
         <v>-0.111522</v>
@@ -2660,10 +3806,22 @@
       <c r="D98">
         <v>-0.114908</v>
       </c>
-    </row>
-    <row r="99" spans="1:4">
+      <c r="E98">
+        <v>0.01460662726799988</v>
+      </c>
+      <c r="F98">
+        <v>-0.1355937086195003</v>
+      </c>
+      <c r="G98">
+        <v>-0.1528896141037326</v>
+      </c>
+      <c r="H98">
+        <v>-0.1128704252532211</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0.035183</v>
@@ -2674,10 +3832,22 @@
       <c r="D99">
         <v>0.031797</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>-0.08676472967599991</v>
+      </c>
+      <c r="F99">
+        <v>0.04686807419524053</v>
+      </c>
+      <c r="G99">
+        <v>-0.1081081817724745</v>
+      </c>
+      <c r="H99">
+        <v>-0.1259540451633889</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>-0.19256</v>
@@ -2688,10 +3858,22 @@
       <c r="D100">
         <v>-0.195946</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>-0.1703794949619999</v>
+      </c>
+      <c r="F100">
+        <v>-0.2657095279549064</v>
+      </c>
+      <c r="G100">
+        <v>-0.15826153747102</v>
+      </c>
+      <c r="H100">
+        <v>-0.2828708159868851</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B101">
         <v>0.028255</v>
@@ -2702,10 +3884,22 @@
       <c r="D101">
         <v>0.024869</v>
       </c>
-    </row>
-    <row r="102" spans="1:4">
+      <c r="E101">
+        <v>-0.175949981074</v>
+      </c>
+      <c r="F101">
+        <v>-0.1497476626222098</v>
+      </c>
+      <c r="G101">
+        <v>-0.247448458205617</v>
+      </c>
+      <c r="H101">
+        <v>-0.1373283436463868</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B102">
         <v>-0.07649</v>
@@ -2716,10 +3910,22 @@
       <c r="D102">
         <v>-0.079876</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>-0.056993436244</v>
+      </c>
+      <c r="F102">
+        <v>-0.2417718003857332</v>
+      </c>
+      <c r="G102">
+        <v>-0.2176624183225983</v>
+      </c>
+      <c r="H102">
+        <v>-0.3075592651579852</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>-0.228425</v>
@@ -2730,10 +3936,22 @@
       <c r="D103">
         <v>-0.231811</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>-0.293170864564</v>
+      </c>
+      <c r="F103">
+        <v>-0.2755927307948421</v>
+      </c>
+      <c r="G103">
+        <v>-0.417537437566516</v>
+      </c>
+      <c r="H103">
+        <v>-0.3990168754688184</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0.031545</v>
@@ -2744,10 +3962,22 @@
       <c r="D104">
         <v>0.028159</v>
       </c>
-    </row>
-    <row r="105" spans="1:4">
+      <c r="E104">
+        <v>-0.210179565949</v>
+      </c>
+      <c r="F104">
+        <v>-0.2732672629392576</v>
+      </c>
+      <c r="G104">
+        <v>-0.255194146501294</v>
+      </c>
+      <c r="H104">
+        <v>-0.4011358742709514</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
       <c r="A105" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B105">
         <v>-0.174973</v>
@@ -2758,10 +3988,22 @@
       <c r="D105">
         <v>-0.178359</v>
       </c>
-    </row>
-    <row r="106" spans="1:4">
+      <c r="E105">
+        <v>-0.1552224110809999</v>
+      </c>
+      <c r="F105">
+        <v>-0.3510511487459023</v>
+      </c>
+      <c r="G105">
+        <v>-0.4028865871886745</v>
+      </c>
+      <c r="H105">
+        <v>-0.3880369737254696</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
       <c r="A106" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B106">
         <v>-0.066541</v>
@@ -2772,10 +4014,22 @@
       <c r="D106">
         <v>-0.069927</v>
       </c>
-    </row>
-    <row r="107" spans="1:4">
+      <c r="E106">
+        <v>-0.2358138902069999</v>
+      </c>
+      <c r="F106">
+        <v>-0.2142951735413388</v>
+      </c>
+      <c r="G106">
+        <v>-0.3964301950675475</v>
+      </c>
+      <c r="H106">
+        <v>-0.4446409368063321</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
       <c r="A107" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B107">
         <v>-0.265138</v>
@@ -2786,10 +4040,22 @@
       <c r="D107">
         <v>-0.268524</v>
       </c>
-    </row>
-    <row r="108" spans="1:4">
+      <c r="E107">
+        <v>-0.319673922252</v>
+      </c>
+      <c r="F107">
+        <v>-0.4410162011530555</v>
+      </c>
+      <c r="G107">
+        <v>-0.4252757763613243</v>
+      </c>
+      <c r="H107">
+        <v>-0.5585031733672294</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
       <c r="A108" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B108">
         <v>0.132124</v>
@@ -2800,10 +4066,22 @@
       <c r="D108">
         <v>0.129172</v>
       </c>
-    </row>
-    <row r="109" spans="1:4">
+      <c r="E108">
+        <v>-0.1740377821279999</v>
+      </c>
+      <c r="F108">
+        <v>-0.2317948421371353</v>
+      </c>
+      <c r="G108">
+        <v>-0.3688111458883979</v>
+      </c>
+      <c r="H108">
+        <v>-0.3510374989454692</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
       <c r="A109" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B109">
         <v>0.01394</v>
@@ -2814,10 +4092,22 @@
       <c r="D109">
         <v>0.011864</v>
       </c>
-    </row>
-    <row r="110" spans="1:4">
+      <c r="E109">
+        <v>0.1425684966080001</v>
+      </c>
+      <c r="F109">
+        <v>-0.1642385663751664</v>
+      </c>
+      <c r="G109">
+        <v>-0.2226808561442501</v>
+      </c>
+      <c r="H109">
+        <v>-0.3613227213232179</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
       <c r="A110" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B110">
         <v>0.134196</v>
@@ -2828,10 +4118,22 @@
       <c r="D110">
         <v>0.13234</v>
       </c>
-    </row>
-    <row r="111" spans="1:4">
+      <c r="E110">
+        <v>0.1457740817600002</v>
+      </c>
+      <c r="F110">
+        <v>0.293776011449103</v>
+      </c>
+      <c r="G110">
+        <v>-0.0536338982492558</v>
+      </c>
+      <c r="H110">
+        <v>-0.1198104406463801</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
       <c r="A111" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B111">
         <v>0.058518</v>
@@ -2842,10 +4144,22 @@
       <c r="D111">
         <v>0.056662</v>
       </c>
-    </row>
-    <row r="112" spans="1:4">
+      <c r="E111">
+        <v>0.1965006490800001</v>
+      </c>
+      <c r="F111">
+        <v>0.2106959327806852</v>
+      </c>
+      <c r="G111">
+        <v>0.367083947809832</v>
+      </c>
+      <c r="H111">
+        <v>-1.090219185517771e-05</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
       <c r="A112" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B112">
         <v>0.186709</v>
@@ -2856,10 +4170,22 @@
       <c r="D112">
         <v>0.184853</v>
       </c>
-    </row>
-    <row r="113" spans="1:4">
+      <c r="E112">
+        <v>0.251989140686</v>
+      </c>
+      <c r="F112">
+        <v>0.4176773835643852</v>
+      </c>
+      <c r="G112">
+        <v>0.4344967080429931</v>
+      </c>
+      <c r="H112">
+        <v>0.6197935168143227</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
       <c r="A113" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B113">
         <v>0.05068</v>
@@ -2870,10 +4196,22 @@
       <c r="D113">
         <v>0.04882400000000001</v>
       </c>
-    </row>
-    <row r="114" spans="1:4">
+      <c r="E113">
+        <v>0.2427022628719999</v>
+      </c>
+      <c r="F113">
+        <v>0.3131162584908531</v>
+      </c>
+      <c r="G113">
+        <v>0.4868940641395327</v>
+      </c>
+      <c r="H113">
+        <v>0.5045345753164843</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
       <c r="A114" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B114">
         <v>0.054501</v>
@@ -2884,10 +4222,22 @@
       <c r="D114">
         <v>0.052645</v>
       </c>
-    </row>
-    <row r="115" spans="1:4">
+      <c r="E114">
+        <v>0.1040393394800001</v>
+      </c>
+      <c r="F114">
+        <v>0.3081243235008964</v>
+      </c>
+      <c r="G114">
+        <v>0.3822452639191041</v>
+      </c>
+      <c r="H114">
+        <v>0.5651716021461586</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
       <c r="A115" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B115">
         <v>0.116715</v>
@@ -2898,10 +4248,22 @@
       <c r="D115">
         <v>0.114859</v>
       </c>
-    </row>
-    <row r="116" spans="1:4">
+      <c r="E115">
+        <v>0.1735507520550001</v>
+      </c>
+      <c r="F115">
+        <v>0.2308481939733336</v>
+      </c>
+      <c r="G115">
+        <v>0.4583741751738859</v>
+      </c>
+      <c r="H115">
+        <v>0.5410085726875886</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
       <c r="A116" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B116">
         <v>0.171873</v>
@@ -2912,10 +4274,22 @@
       <c r="D116">
         <v>0.170017</v>
       </c>
-    </row>
-    <row r="117" spans="1:4">
+      <c r="E116">
+        <v>0.3044039826030001</v>
+      </c>
+      <c r="F116">
+        <v>0.3730743302671351</v>
+      </c>
+      <c r="G116">
+        <v>0.4401133113680979</v>
+      </c>
+      <c r="H116">
+        <v>0.7063225773144246</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
       <c r="A117" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B117">
         <v>-0.213406</v>
@@ -2926,10 +4300,22 @@
       <c r="D117">
         <v>-0.215262</v>
       </c>
-    </row>
-    <row r="118" spans="1:4">
+      <c r="E117">
+        <v>-0.08184319945399998</v>
+      </c>
+      <c r="F117">
+        <v>0.02361537249991308</v>
+      </c>
+      <c r="G117">
+        <v>0.07750360378517107</v>
+      </c>
+      <c r="H117">
+        <v>0.1301116397363784</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
       <c r="A118" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B118">
         <v>0.051718</v>
@@ -2940,10 +4326,22 @@
       <c r="D118">
         <v>0.049862</v>
       </c>
-    </row>
-    <row r="119" spans="1:4">
+      <c r="E118">
+        <v>-0.1761333938440001</v>
+      </c>
+      <c r="F118">
+        <v>-0.03606206506517529</v>
+      </c>
+      <c r="G118">
+        <v>0.0746548822035038</v>
+      </c>
+      <c r="H118">
+        <v>0.1312300884771074</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
       <c r="A119" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B119">
         <v>0.096068</v>
@@ -2954,10 +4352,22 @@
       <c r="D119">
         <v>0.094212</v>
       </c>
-    </row>
-    <row r="120" spans="1:4">
+      <c r="E119">
+        <v>0.1487715987440001</v>
+      </c>
+      <c r="F119">
+        <v>-0.09851527314483099</v>
+      </c>
+      <c r="G119">
+        <v>0.05475245566090448</v>
+      </c>
+      <c r="H119">
+        <v>0.1759002679656603</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
       <c r="A120" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B120">
         <v>0.084983</v>
@@ -2968,10 +4378,22 @@
       <c r="D120">
         <v>0.08312700000000001</v>
       </c>
-    </row>
-    <row r="121" spans="1:4">
+      <c r="E120">
+        <v>0.185170560924</v>
+      </c>
+      <c r="F120">
+        <v>0.2442655354327925</v>
+      </c>
+      <c r="G120">
+        <v>-0.02357755225554137</v>
+      </c>
+      <c r="H120">
+        <v>0.1424308630426285</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
       <c r="A121" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B121">
         <v>0.030061</v>
@@ -2982,10 +4404,22 @@
       <c r="D121">
         <v>0.028205</v>
       </c>
-    </row>
-    <row r="122" spans="1:4">
+      <c r="E121">
+        <v>0.113676597035</v>
+      </c>
+      <c r="F121">
+        <v>0.2185982965948614</v>
+      </c>
+      <c r="G121">
+        <v>0.2793600448596745</v>
+      </c>
+      <c r="H121">
+        <v>0.003962442883091111</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
       <c r="A122" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B122">
         <v>-0.084603</v>
@@ -2996,10 +4430,22 @@
       <c r="D122">
         <v>-0.08645899999999999</v>
       </c>
-    </row>
-    <row r="123" spans="1:4">
+      <c r="E122">
+        <v>-0.06069257609499989</v>
+      </c>
+      <c r="F122">
+        <v>0.01738923213195087</v>
+      </c>
+      <c r="G122">
+        <v>0.1132395064695664</v>
+      </c>
+      <c r="H122">
+        <v>0.1687478547411518</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
       <c r="A123" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B123">
         <v>0.031244</v>
@@ -3010,10 +4456,22 @@
       <c r="D123">
         <v>0.029388</v>
       </c>
-    </row>
-    <row r="124" spans="1:4">
+      <c r="E123">
+        <v>-0.05961185709200001</v>
+      </c>
+      <c r="F123">
+        <v>-0.03308820952127978</v>
+      </c>
+      <c r="G123">
+        <v>0.04728826688584453</v>
+      </c>
+      <c r="H123">
+        <v>0.1459553890856939</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
       <c r="A124" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B124">
         <v>0.025174</v>
@@ -3024,10 +4482,22 @@
       <c r="D124">
         <v>0.023318</v>
       </c>
-    </row>
-    <row r="125" spans="1:4">
+      <c r="E124">
+        <v>0.05339126938399996</v>
+      </c>
+      <c r="F124">
+        <v>-0.03768388637567133</v>
+      </c>
+      <c r="G124">
+        <v>-0.01054176039089705</v>
+      </c>
+      <c r="H124">
+        <v>0.07170893469308859</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
       <c r="A125" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B125">
         <v>-0.077046</v>
@@ -3038,10 +4508,22 @@
       <c r="D125">
         <v>-0.078902</v>
       </c>
-    </row>
-    <row r="126" spans="1:4">
+      <c r="E125">
+        <v>-0.05742383683600005</v>
+      </c>
+      <c r="F125">
+        <v>-0.02972340855293643</v>
+      </c>
+      <c r="G125">
+        <v>-0.1136125523728582</v>
+      </c>
+      <c r="H125">
+        <v>-0.08861199441253453</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
       <c r="A126" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B126">
         <v>-0.083202</v>
@@ -3052,10 +4534,22 @@
       <c r="D126">
         <v>-0.08505799999999999</v>
       </c>
-    </row>
-    <row r="127" spans="1:4">
+      <c r="E126">
+        <v>-0.157248753684</v>
+      </c>
+      <c r="F126">
+        <v>-0.1375974801224036</v>
+      </c>
+      <c r="G126">
+        <v>-0.1122531948682407</v>
+      </c>
+      <c r="H126">
+        <v>-0.1890068958931276</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
       <c r="A127" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B127">
         <v>-0.076277</v>
@@ -3066,10 +4560,22 @@
       <c r="D127">
         <v>-0.07813299999999999</v>
       </c>
-    </row>
-    <row r="128" spans="1:4">
+      <c r="E127">
+        <v>-0.156545163286</v>
+      </c>
+      <c r="F127">
+        <v>-0.2230954368124081</v>
+      </c>
+      <c r="G127">
+        <v>-0.2049795762079998</v>
+      </c>
+      <c r="H127">
+        <v>-0.1816155159936005</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
       <c r="A128" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B128">
         <v>0.121927</v>
@@ -3080,10 +4586,22 @@
       <c r="D128">
         <v>0.120071</v>
       </c>
-    </row>
-    <row r="129" spans="1:4">
+      <c r="E128">
+        <v>0.03255649255700011</v>
+      </c>
+      <c r="F128">
+        <v>-0.05527069758691328</v>
+      </c>
+      <c r="G128">
+        <v>-0.1298117290059106</v>
+      </c>
+      <c r="H128">
+        <v>-0.1095206789028705</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
       <c r="A129" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B129">
         <v>0.025767</v>
@@ -3094,10 +4612,22 @@
       <c r="D129">
         <v>0.023911</v>
       </c>
-    </row>
-    <row r="130" spans="1:4">
+      <c r="E129">
+        <v>0.1468530176810001</v>
+      </c>
+      <c r="F129">
+        <v>0.05724595085053052</v>
+      </c>
+      <c r="G129">
+        <v>-0.032681275236914</v>
+      </c>
+      <c r="H129">
+        <v>-0.109004657258171</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
       <c r="A130" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B130">
         <v>0.010816</v>
@@ -3108,10 +4638,22 @@
       <c r="D130">
         <v>0.008959999999999999</v>
       </c>
-    </row>
-    <row r="131" spans="1:4">
+      <c r="E130">
+        <v>0.03308524256000012</v>
+      </c>
+      <c r="F130">
+        <v>0.1571288207194219</v>
+      </c>
+      <c r="G130">
+        <v>0.06671887457015147</v>
+      </c>
+      <c r="H130">
+        <v>-0.02401409946303668</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
       <c r="A131" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B131">
         <v>0.120389</v>
@@ -3122,10 +4664,22 @@
       <c r="D131">
         <v>0.118533</v>
       </c>
-    </row>
-    <row r="132" spans="1:4">
+      <c r="E131">
+        <v>0.1285550556800001</v>
+      </c>
+      <c r="F131">
+        <v>0.1555399356163647</v>
+      </c>
+      <c r="G131">
+        <v>0.2942867712257571</v>
+      </c>
+      <c r="H131">
+        <v>0.1931602629295752</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
       <c r="A132" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B132">
         <v>-0.043472</v>
@@ -3136,10 +4690,22 @@
       <c r="D132">
         <v>-0.045532</v>
       </c>
-    </row>
-    <row r="133" spans="1:4">
+      <c r="E132">
+        <v>0.067603955444</v>
+      </c>
+      <c r="F132">
+        <v>0.07716968688477843</v>
+      </c>
+      <c r="G132">
+        <v>0.1029258912678803</v>
+      </c>
+      <c r="H132">
+        <v>0.2353553059583058</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
       <c r="A133" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B133">
         <v>-0.008723</v>
@@ -3150,10 +4716,22 @@
       <c r="D133">
         <v>-0.010783</v>
       </c>
-    </row>
-    <row r="134" spans="1:4">
+      <c r="E133">
+        <v>-0.05582402844400003</v>
+      </c>
+      <c r="F133">
+        <v>0.05609198199244725</v>
+      </c>
+      <c r="G133">
+        <v>0.06555456615109989</v>
+      </c>
+      <c r="H133">
+        <v>0.09103304138233881</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
       <c r="A134" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B134">
         <v>-0.02033</v>
@@ -3164,10 +4742,22 @@
       <c r="D134">
         <v>-0.022593</v>
       </c>
-    </row>
-    <row r="135" spans="1:4">
+      <c r="E134">
+        <v>-0.03313237968099991</v>
+      </c>
+      <c r="F134">
+        <v>-0.07715579616936474</v>
+      </c>
+      <c r="G134">
+        <v>0.032231695843292</v>
+      </c>
+      <c r="H134">
+        <v>0.04148049183804803</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
       <c r="A135" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B135">
         <v>0.053127</v>
@@ -3178,10 +4768,22 @@
       <c r="D135">
         <v>0.050864</v>
       </c>
-    </row>
-    <row r="136" spans="1:4">
+      <c r="E135">
+        <v>0.02712182964800003</v>
+      </c>
+      <c r="F135">
+        <v>0.01604637495890571</v>
+      </c>
+      <c r="G135">
+        <v>-0.03021624858572325</v>
+      </c>
+      <c r="H135">
+        <v>0.08473512882066525</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
       <c r="A136" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B136">
         <v>0.002287</v>
@@ -3192,10 +4794,22 @@
       <c r="D136">
         <v>-0.0001790000000000003</v>
       </c>
-    </row>
-    <row r="137" spans="1:4">
+      <c r="E136">
+        <v>0.05067589534400008</v>
+      </c>
+      <c r="F136">
+        <v>0.02693797484049298</v>
+      </c>
+      <c r="G136">
+        <v>0.01586450265778794</v>
+      </c>
+      <c r="H136">
+        <v>-0.03038983987722643</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
       <c r="A137" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B137">
         <v>-0.013563</v>
@@ -3206,10 +4820,22 @@
       <c r="D137">
         <v>-0.016029</v>
       </c>
-    </row>
-    <row r="138" spans="1:4">
+      <c r="E137">
+        <v>-0.01620513080899999</v>
+      </c>
+      <c r="F137">
+        <v>0.03383461141753119</v>
+      </c>
+      <c r="G137">
+        <v>0.01047718604177472</v>
+      </c>
+      <c r="H137">
+        <v>-0.0004187894553137061</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
       <c r="A138" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B138">
         <v>-0.060059</v>
@@ -3220,10 +4846,22 @@
       <c r="D138">
         <v>-0.06272800000000001</v>
       </c>
-    </row>
-    <row r="139" spans="1:4">
+      <c r="E138">
+        <v>-0.07775153288799996</v>
+      </c>
+      <c r="F138">
+        <v>-0.07791661536361305</v>
+      </c>
+      <c r="G138">
+        <v>-0.0310157660874677</v>
+      </c>
+      <c r="H138">
+        <v>-0.05290802688425378</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
       <c r="A139" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B139">
         <v>0.023841</v>
@@ -3234,10 +4872,22 @@
       <c r="D139">
         <v>0.021172</v>
       </c>
-    </row>
-    <row r="140" spans="1:4">
+      <c r="E139">
+        <v>-0.04288407721600007</v>
+      </c>
+      <c r="F139">
+        <v>-0.05822568834230468</v>
+      </c>
+      <c r="G139">
+        <v>-0.05839426594409147</v>
+      </c>
+      <c r="H139">
+        <v>-0.01050043188707162</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
       <c r="A140" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B140">
         <v>-0.010541</v>
@@ -3248,10 +4898,22 @@
       <c r="D140">
         <v>-0.01321</v>
       </c>
-    </row>
-    <row r="141" spans="1:4">
+      <c r="E140">
+        <v>0.007682317880000067</v>
+      </c>
+      <c r="F140">
+        <v>-0.05552757855597668</v>
+      </c>
+      <c r="G140">
+        <v>-0.07066652699930276</v>
+      </c>
+      <c r="H140">
+        <v>-0.07083287769097002</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
       <c r="A141" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B141">
         <v>-0.045975</v>
@@ -3262,10 +4924,22 @@
       <c r="D141">
         <v>-0.048846</v>
       </c>
-    </row>
-    <row r="142" spans="1:4">
+      <c r="E141">
+        <v>-0.06141074433999993</v>
+      </c>
+      <c r="F141">
+        <v>-0.04153893261916641</v>
+      </c>
+      <c r="G141">
+        <v>-0.1016612784538314</v>
+      </c>
+      <c r="H141">
+        <v>-0.1160607498214947</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
       <c r="A142" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B142">
         <v>-0.08867</v>
@@ -3276,10 +4950,22 @@
       <c r="D142">
         <v>-0.091541</v>
       </c>
-    </row>
-    <row r="143" spans="1:4">
+      <c r="E142">
+        <v>-0.135915588314</v>
+      </c>
+      <c r="F142">
+        <v>-0.1473301433923719</v>
+      </c>
+      <c r="G142">
+        <v>-0.1292774171882752</v>
+      </c>
+      <c r="H142">
+        <v>-0.1838961033628892</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
       <c r="A143" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B143">
         <v>0.04351</v>
@@ -3290,10 +4976,22 @@
       <c r="D143">
         <v>0.040639</v>
       </c>
-    </row>
-    <row r="144" spans="1:4">
+      <c r="E143">
+        <v>-0.0546221346989999</v>
+      </c>
+      <c r="F143">
+        <v>-0.1008000619074926</v>
+      </c>
+      <c r="G143">
+        <v>-0.1126784930896945</v>
+      </c>
+      <c r="H143">
+        <v>-0.09389212214538945</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
       <c r="A144" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B144">
         <v>-0.050676</v>
@@ -3304,10 +5002,22 @@
       <c r="D144">
         <v>-0.053547</v>
       </c>
-    </row>
-    <row r="145" spans="1:4">
+      <c r="E144">
+        <v>-0.01508409653299991</v>
+      </c>
+      <c r="F144">
+        <v>-0.1052442832522725</v>
+      </c>
+      <c r="G144">
+        <v>-0.1489495209925321</v>
+      </c>
+      <c r="H144">
+        <v>-0.1601918978202206</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
       <c r="A145" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B145">
         <v>-0.072589</v>
@@ -3318,10 +5028,22 @@
       <c r="D145">
         <v>-0.07546</v>
       </c>
-    </row>
-    <row r="146" spans="1:4">
+      <c r="E145">
+        <v>-0.12496634338</v>
+      </c>
+      <c r="F145">
+        <v>-0.08940585060861972</v>
+      </c>
+      <c r="G145">
+        <v>-0.172762549638056</v>
+      </c>
+      <c r="H145">
+        <v>-0.2131697901384356</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
       <c r="A146" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B146">
         <v>0.033031</v>
@@ -3332,10 +5054,22 @@
       <c r="D146">
         <v>0.03016</v>
       </c>
-    </row>
-    <row r="147" spans="1:4">
+      <c r="E146">
+        <v>-0.04757587360000004</v>
+      </c>
+      <c r="F146">
+        <v>-0.09857532829634086</v>
+      </c>
+      <c r="G146">
+        <v>-0.06194233106297575</v>
+      </c>
+      <c r="H146">
+        <v>-0.1478130681351398</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
       <c r="A147" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B147">
         <v>0.071121</v>
@@ -3346,10 +5080,22 @@
       <c r="D147">
         <v>0.06825000000000001</v>
       </c>
-    </row>
-    <row r="148" spans="1:4">
+      <c r="E147">
+        <v>0.1004684199999999</v>
+      </c>
+      <c r="F147">
+        <v>0.0174270730267998</v>
+      </c>
+      <c r="G147">
+        <v>-0.03705309445256622</v>
+      </c>
+      <c r="H147">
+        <v>0.002080104841976071</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
       <c r="A148" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B148">
         <v>-0.068869</v>
@@ -3360,10 +5106,22 @@
       <c r="D148">
         <v>-0.07174</v>
       </c>
-    </row>
-    <row r="149" spans="1:4">
+      <c r="E148">
+        <v>-0.00838625500000012</v>
+      </c>
+      <c r="F148">
+        <v>0.02152081554919993</v>
+      </c>
+      <c r="G148">
+        <v>-0.05556314519214289</v>
+      </c>
+      <c r="H148">
+        <v>-0.1061349054565391</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
       <c r="A149" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B149">
         <v>0.059422</v>
@@ -3374,10 +5132,22 @@
       <c r="D149">
         <v>0.056551</v>
       </c>
-    </row>
-    <row r="150" spans="1:4">
+      <c r="E149">
+        <v>-0.01924596874000006</v>
+      </c>
+      <c r="F149">
+        <v>0.047690493893495</v>
+      </c>
+      <c r="G149">
+        <v>0.07928883918932272</v>
+      </c>
+      <c r="H149">
+        <v>-0.002154296615903717</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
       <c r="A150" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B150">
         <v>-0.000408</v>
@@ -3388,10 +5158,22 @@
       <c r="D150">
         <v>-0.003279</v>
       </c>
-    </row>
-    <row r="151" spans="1:4">
+      <c r="E150">
+        <v>0.05308656927100008</v>
+      </c>
+      <c r="F150">
+        <v>-0.02246186120850169</v>
+      </c>
+      <c r="G150">
+        <v>0.04425511676401817</v>
+      </c>
+      <c r="H150">
+        <v>0.07574985108562093</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
       <c r="A151" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B151">
         <v>-0.050284</v>
@@ -3402,10 +5184,22 @@
       <c r="D151">
         <v>-0.053155</v>
       </c>
-    </row>
-    <row r="152" spans="1:4">
+      <c r="E151">
+        <v>-0.05625970475499997</v>
+      </c>
+      <c r="F151">
+        <v>-0.002890247318599881</v>
+      </c>
+      <c r="G151">
+        <v>-0.07442290097596371</v>
+      </c>
+      <c r="H151">
+        <v>-0.01125226396757317</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
       <c r="A152" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B152">
         <v>-0.054982</v>
@@ -3416,10 +5210,22 @@
       <c r="D152">
         <v>-0.057651</v>
       </c>
-    </row>
-    <row r="153" spans="1:4">
+      <c r="E152">
+        <v>-0.107741561095</v>
+      </c>
+      <c r="F152">
+        <v>-0.1106672765161695</v>
+      </c>
+      <c r="G152">
+        <v>-0.06037462167043528</v>
+      </c>
+      <c r="H152">
+        <v>-0.1277833463117984</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
       <c r="A153" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B153">
         <v>-0.023347</v>
@@ -3430,10 +5236,22 @@
       <c r="D153">
         <v>-0.025813</v>
       </c>
-    </row>
-    <row r="154" spans="1:4">
+      <c r="E153">
+        <v>-0.08197585473699998</v>
+      </c>
+      <c r="F153">
+        <v>-0.1307734281784547</v>
+      </c>
+      <c r="G153">
+        <v>-0.1336236221074576</v>
+      </c>
+      <c r="H153">
+        <v>-0.08462917156125627</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
       <c r="A154" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B154">
         <v>0.02411</v>
@@ -3444,10 +5262,22 @@
       <c r="D154">
         <v>0.021644</v>
       </c>
-    </row>
-    <row r="155" spans="1:4">
+      <c r="E154">
+        <v>-0.004727696572000006</v>
+      </c>
+      <c r="F154">
+        <v>-0.06210614013692761</v>
+      </c>
+      <c r="G154">
+        <v>-0.1119598882579492</v>
+      </c>
+      <c r="H154">
+        <v>-0.1148717717843514</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
       <c r="A155" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B155">
         <v>-0.009346999999999999</v>
@@ -3458,10 +5288,22 @@
       <c r="D155">
         <v>-0.011813</v>
       </c>
-    </row>
-    <row r="156" spans="1:4">
+      <c r="E155">
+        <v>0.00957531942799994</v>
+      </c>
+      <c r="F155">
+        <v>-0.01648484829239494</v>
+      </c>
+      <c r="G155">
+        <v>-0.07318548030349004</v>
+      </c>
+      <c r="H155">
+        <v>-0.122450306097958</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
       <c r="A156" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B156">
         <v>-0.05972</v>
@@ -3472,10 +5314,22 @@
       <c r="D156">
         <v>-0.06218600000000001</v>
       </c>
-    </row>
-    <row r="157" spans="1:4">
+      <c r="E156">
+        <v>-0.07326439678199992</v>
+      </c>
+      <c r="F156">
+        <v>-0.05320613138594965</v>
+      </c>
+      <c r="G156">
+        <v>-0.07764572151648408</v>
+      </c>
+      <c r="H156">
+        <v>-0.1308203680253371</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
       <c r="A157" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B157">
         <v>0.15081</v>
@@ -3486,10 +5340,22 @@
       <c r="D157">
         <v>0.148344</v>
       </c>
-    </row>
-    <row r="158" spans="1:4">
+      <c r="E157">
+        <v>0.07693308001599997</v>
+      </c>
+      <c r="F157">
+        <v>0.06421126954177114</v>
+      </c>
+      <c r="G157">
+        <v>0.08724505825973305</v>
+      </c>
+      <c r="H157">
+        <v>0.05918000157087455</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
       <c r="A158" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B158">
         <v>0.051146</v>
@@ -3500,10 +5366,22 @@
       <c r="D158">
         <v>0.04867999999999999</v>
       </c>
-    </row>
-    <row r="159" spans="1:4">
+      <c r="E158">
+        <v>0.2042453859200002</v>
+      </c>
+      <c r="F158">
+        <v>0.1293581823511789</v>
+      </c>
+      <c r="G158">
+        <v>0.1160170741430646</v>
+      </c>
+      <c r="H158">
+        <v>0.1401721476958169</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
       <c r="A159" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B159">
         <v>0.000474</v>
@@ -3514,10 +5392,22 @@
       <c r="D159">
         <v>-0.001992</v>
       </c>
-    </row>
-    <row r="160" spans="1:4">
+      <c r="E159">
+        <v>0.04659102944000004</v>
+      </c>
+      <c r="F159">
+        <v>0.2018465291112475</v>
+      </c>
+      <c r="G159">
+        <v>0.1271085008519353</v>
+      </c>
+      <c r="H159">
+        <v>0.1137939681313715</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
       <c r="A160" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B160">
         <v>-0.050854</v>
@@ -3528,10 +5418,22 @@
       <c r="D160">
         <v>-0.05332000000000001</v>
       </c>
-    </row>
-    <row r="161" spans="1:4">
+      <c r="E160">
+        <v>-0.05520578656000008</v>
+      </c>
+      <c r="F160">
+        <v>-0.009213204249740814</v>
+      </c>
+      <c r="G160">
+        <v>0.1377640721790356</v>
+      </c>
+      <c r="H160">
+        <v>0.06701107558651009</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
       <c r="A161" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B161">
         <v>-0.023977</v>
@@ -3542,10 +5444,22 @@
       <c r="D161">
         <v>-0.026443</v>
       </c>
-    </row>
-    <row r="162" spans="1:4">
+      <c r="E161">
+        <v>-0.07835305924000002</v>
+      </c>
+      <c r="F161">
+        <v>-0.08018897994599394</v>
+      </c>
+      <c r="G161">
+        <v>-0.03541257948976495</v>
+      </c>
+      <c r="H161">
+        <v>0.1076781768184054</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
       <c r="A162" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B162">
         <v>0.076664</v>
@@ -3556,10 +5470,22 @@
       <c r="D162">
         <v>0.074198</v>
       </c>
-    </row>
-    <row r="163" spans="1:4">
+      <c r="E162">
+        <v>0.04579298228599993</v>
+      </c>
+      <c r="F162">
+        <v>-0.009968699529489533</v>
+      </c>
+      <c r="G162">
+        <v>-0.01194084188002686</v>
+      </c>
+      <c r="H162">
+        <v>0.03615787793725356</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
       <c r="A163" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B163">
         <v>-0.134305</v>
@@ -3570,10 +5496,22 @@
       <c r="D163">
         <v>-0.136771</v>
       </c>
-    </row>
-    <row r="164" spans="1:4">
+      <c r="E163">
+        <v>-0.07272113465800001</v>
+      </c>
+      <c r="F163">
+        <v>-0.09724116969423857</v>
+      </c>
+      <c r="G163">
+        <v>-0.1453762705261417</v>
+      </c>
+      <c r="H163">
+        <v>-0.1470786809952537</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
       <c r="A164" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B164">
         <v>0.02757</v>
@@ -3584,10 +5522,22 @@
       <c r="D164">
         <v>0.025104</v>
       </c>
-    </row>
-    <row r="165" spans="1:4">
+      <c r="E164">
+        <v>-0.115100499184</v>
+      </c>
+      <c r="F164">
+        <v>-0.04944272602245448</v>
+      </c>
+      <c r="G164">
+        <v>-0.07457831201824272</v>
+      </c>
+      <c r="H164">
+        <v>-0.1239217964214299</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
       <c r="A165" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B165">
         <v>0.052886</v>
@@ -3598,10 +5548,22 @@
       <c r="D165">
         <v>0.05042</v>
       </c>
-    </row>
-    <row r="166" spans="1:4">
+      <c r="E165">
+        <v>0.07678974368000002</v>
+      </c>
+      <c r="F165">
+        <v>-0.07048386635285742</v>
+      </c>
+      <c r="G165">
+        <v>-0.001515628268506708</v>
+      </c>
+      <c r="H165">
+        <v>-0.02791855051020264</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
       <c r="A166" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B166">
         <v>0.041999</v>
@@ -3612,10 +5574,22 @@
       <c r="D166">
         <v>0.039533</v>
       </c>
-    </row>
-    <row r="167" spans="1:4">
+      <c r="E166">
+        <v>0.09194625385999999</v>
+      </c>
+      <c r="F166">
+        <v>0.1193584726169015</v>
+      </c>
+      <c r="G166">
+        <v>-0.03373730504138495</v>
+      </c>
+      <c r="H166">
+        <v>0.03795745439915454</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
       <c r="A167" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B167">
         <v>-0.019582</v>
@@ -3626,10 +5600,22 @@
       <c r="D167">
         <v>-0.022048</v>
       </c>
-    </row>
-    <row r="168" spans="1:4">
+      <c r="E167">
+        <v>0.01661337641600014</v>
+      </c>
+      <c r="F167">
+        <v>0.06787102285489466</v>
+      </c>
+      <c r="G167">
+        <v>0.094678857012644</v>
+      </c>
+      <c r="H167">
+        <v>-0.05504146493983242</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
       <c r="A168" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B168">
         <v>0.043956</v>
@@ -3640,10 +5626,22 @@
       <c r="D168">
         <v>0.04149</v>
       </c>
-    </row>
-    <row r="169" spans="1:4">
+      <c r="E168">
+        <v>0.01852722847999999</v>
+      </c>
+      <c r="F168">
+        <v>0.05879266540350003</v>
+      </c>
+      <c r="G168">
+        <v>0.1121769915931443</v>
+      </c>
+      <c r="H168">
+        <v>0.1400970827900987</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
       <c r="A169" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B169">
         <v>-0.041232</v>
@@ -3654,10 +5652,22 @@
       <c r="D169">
         <v>-0.043698</v>
       </c>
-    </row>
-    <row r="170" spans="1:4">
+      <c r="E169">
+        <v>-0.004021030019999983</v>
+      </c>
+      <c r="F169">
+        <v>-0.02598037435011902</v>
+      </c>
+      <c r="G169">
+        <v>0.0125255435106979</v>
+      </c>
+      <c r="H169">
+        <v>0.06357708141450713</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
       <c r="A170" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B170">
         <v>-0.024024</v>
@@ -3668,10 +5678,22 @@
       <c r="D170">
         <v>-0.02649</v>
       </c>
-    </row>
-    <row r="171" spans="1:4">
+      <c r="E170">
+        <v>-0.06903043998000002</v>
+      </c>
+      <c r="F170">
+        <v>-0.0304045129347702</v>
+      </c>
+      <c r="G170">
+        <v>-0.05178215423358434</v>
+      </c>
+      <c r="H170">
+        <v>-0.0142962581369005</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
       <c r="A171" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B171">
         <v>0.012131</v>
@@ -3682,10 +5704,22 @@
       <c r="D171">
         <v>0.009665</v>
       </c>
-    </row>
-    <row r="172" spans="1:4">
+      <c r="E171">
+        <v>-0.01708102584999993</v>
+      </c>
+      <c r="F171">
+        <v>-0.06003261918240665</v>
+      </c>
+      <c r="G171">
+        <v>-0.02103337255228477</v>
+      </c>
+      <c r="H171">
+        <v>-0.0426176287542519</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
       <c r="A172" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B172">
         <v>-0.019285</v>
@@ -3696,10 +5730,22 @@
       <c r="D172">
         <v>-0.021751</v>
       </c>
-    </row>
-    <row r="173" spans="1:4">
+      <c r="E172">
+        <v>-0.01229622341499992</v>
+      </c>
+      <c r="F172">
+        <v>-0.03846049645673655</v>
+      </c>
+      <c r="G172">
+        <v>-0.0804778496825701</v>
+      </c>
+      <c r="H172">
+        <v>-0.04232687566589999</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
       <c r="A173" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B173">
         <v>-0.005801</v>
@@ -3710,10 +5756,22 @@
       <c r="D173">
         <v>-0.008267</v>
       </c>
-    </row>
-    <row r="174" spans="1:4">
+      <c r="E173">
+        <v>-0.02983818448300002</v>
+      </c>
+      <c r="F173">
+        <v>-0.02046157053602815</v>
+      </c>
+      <c r="G173">
+        <v>-0.04640954353252869</v>
+      </c>
+      <c r="H173">
+        <v>-0.08807953929924428</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
       <c r="A174" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B174">
         <v>0.01404</v>
@@ -3724,10 +5782,22 @@
       <c r="D174">
         <v>0.011574</v>
       </c>
-    </row>
-    <row r="175" spans="1:4">
+      <c r="E174">
+        <v>0.003211317741999897</v>
+      </c>
+      <c r="F174">
+        <v>-0.01860953163020629</v>
+      </c>
+      <c r="G174">
+        <v>-0.009124392753412147</v>
+      </c>
+      <c r="H174">
+        <v>-0.03537268758937417</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8">
       <c r="A175" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B175">
         <v>0.025643</v>
@@ -3738,10 +5808,22 @@
       <c r="D175">
         <v>0.023177</v>
       </c>
-    </row>
-    <row r="176" spans="1:4">
+      <c r="E175">
+        <v>0.03501925059800004</v>
+      </c>
+      <c r="F175">
+        <v>0.02646274645330626</v>
+      </c>
+      <c r="G175">
+        <v>0.004136155255200391</v>
+      </c>
+      <c r="H175">
+        <v>0.01384113119574204</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
       <c r="A176" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B176">
         <v>0.08413</v>
@@ -3752,10 +5834,22 @@
       <c r="D176">
         <v>0.081664</v>
       </c>
-    </row>
-    <row r="177" spans="1:4">
+      <c r="E176">
+        <v>0.106733726528</v>
+      </c>
+      <c r="F176">
+        <v>0.119543062678835</v>
+      </c>
+      <c r="G176">
+        <v>0.110287800179669</v>
+      </c>
+      <c r="H176">
+        <v>0.08613793023796101</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
       <c r="A177" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B177">
         <v>0.017503</v>
@@ -3766,10 +5860,22 @@
       <c r="D177">
         <v>0.015037</v>
       </c>
-    </row>
-    <row r="178" spans="1:4">
+      <c r="E177">
+        <v>0.09792898156800001</v>
+      </c>
+      <c r="F177">
+        <v>0.1233756815738014</v>
+      </c>
+      <c r="G177">
+        <v>0.1363776317123366</v>
+      </c>
+      <c r="H177">
+        <v>0.1269831978309706</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
       <c r="A178" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B178">
         <v>0.079439</v>
@@ -3780,10 +5886,22 @@
       <c r="D178">
         <v>0.076973</v>
       </c>
-    </row>
-    <row r="179" spans="1:4">
+      <c r="E178">
+        <v>0.09316744300099988</v>
+      </c>
+      <c r="F178">
+        <v>0.1824398690662337</v>
+      </c>
+      <c r="G178">
+        <v>0.2098452779115816</v>
+      </c>
+      <c r="H178">
+        <v>0.2238480271581302</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
       <c r="A179" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B179">
         <v>0.022208</v>
@@ -3794,10 +5912,22 @@
       <c r="D179">
         <v>0.019742</v>
       </c>
-    </row>
-    <row r="180" spans="1:4">
+      <c r="E179">
+        <v>0.09823460096599979</v>
+      </c>
+      <c r="F179">
+        <v>0.1147487546607255</v>
+      </c>
+      <c r="G179">
+        <v>0.2057835969613391</v>
+      </c>
+      <c r="H179">
+        <v>0.233730043388112</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8">
       <c r="A180" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B180">
         <v>0.093638</v>
@@ -3808,10 +5938,22 @@
       <c r="D180">
         <v>0.091172</v>
       </c>
-    </row>
-    <row r="181" spans="1:4">
+      <c r="E180">
+        <v>0.112713917624</v>
+      </c>
+      <c r="F180">
+        <v>0.198362846005272</v>
+      </c>
+      <c r="G180">
+        <v>0.2163826281206533</v>
+      </c>
+      <c r="H180">
+        <v>0.3157172990634982</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
       <c r="A181" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B181">
         <v>0.151617</v>
@@ -3822,10 +5964,22 @@
       <c r="D181">
         <v>0.149354</v>
       </c>
-    </row>
-    <row r="182" spans="1:4">
+      <c r="E181">
+        <v>0.254142902888</v>
+      </c>
+      <c r="F181">
+        <v>0.2789021920768149</v>
+      </c>
+      <c r="G181">
+        <v>0.3773431305075434</v>
+      </c>
+      <c r="H181">
+        <v>0.3980542391609854</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8">
       <c r="A182" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B182">
         <v>0.012618</v>
@@ -3836,10 +5990,22 @@
       <c r="D182">
         <v>0.010355</v>
       </c>
-    </row>
-    <row r="183" spans="1:4">
+      <c r="E182">
+        <v>0.1612555606699999</v>
+      </c>
+      <c r="F182">
+        <v>0.2671295526474051</v>
+      </c>
+      <c r="G182">
+        <v>0.2921452242757701</v>
+      </c>
+      <c r="H182">
+        <v>0.3916055186239489</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8">
       <c r="A183" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B183">
         <v>0.04506</v>
@@ -3850,10 +6016,22 @@
       <c r="D183">
         <v>0.042797</v>
       </c>
-    </row>
-    <row r="184" spans="1:4">
+      <c r="E183">
+        <v>0.05359516293499977</v>
+      </c>
+      <c r="F183">
+        <v>0.2109538148999939</v>
+      </c>
+      <c r="G183">
+        <v>0.3213588961120561</v>
+      </c>
+      <c r="H183">
+        <v>0.3474451634391003</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8">
       <c r="A184" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B184">
         <v>0.153807</v>
@@ -3864,10 +6042,22 @@
       <c r="D184">
         <v>0.151747</v>
       </c>
-    </row>
-    <row r="185" spans="1:4">
+      <c r="E184">
+        <v>0.2010383163590002</v>
+      </c>
+      <c r="F184">
+        <v>0.2134750681248974</v>
+      </c>
+      <c r="G184">
+        <v>0.3947124234496233</v>
+      </c>
+      <c r="H184">
+        <v>0.5218711445203725</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8">
       <c r="A185" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B185">
         <v>0.17986</v>
@@ -3878,10 +6068,22 @@
       <c r="D185">
         <v>0.1778</v>
       </c>
-    </row>
-    <row r="186" spans="1:4">
+      <c r="E185">
+        <v>0.3565276166</v>
+      </c>
+      <c r="F185">
+        <v>0.4145829290076304</v>
+      </c>
+      <c r="G185">
+        <v>0.4292309352375041</v>
+      </c>
+      <c r="H185">
+        <v>0.6426922923389662</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8">
       <c r="A186" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B186">
         <v>0.084202</v>
@@ -3892,10 +6094,22 @@
       <c r="D186">
         <v>0.08214199999999999</v>
       </c>
-    </row>
-    <row r="187" spans="1:4">
+      <c r="E186">
+        <v>0.2745468475999999</v>
+      </c>
+      <c r="F186">
+        <v>0.4679555080827571</v>
+      </c>
+      <c r="G186">
+        <v>0.5307795999621752</v>
+      </c>
+      <c r="H186">
+        <v>0.5466308227197831</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8">
       <c r="A187" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B187">
         <v>-0.077816</v>
@@ -3906,10 +6120,22 @@
       <c r="D187">
         <v>-0.07967199999999999</v>
       </c>
-    </row>
-    <row r="188" spans="1:4">
+      <c r="E187">
+        <v>-0.004074417424000054</v>
+      </c>
+      <c r="F187">
+        <v>0.1730011511580127</v>
+      </c>
+      <c r="G187">
+        <v>0.3510005568427876</v>
+      </c>
+      <c r="H187">
+        <v>0.4088193276739889</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8">
       <c r="A188" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B188">
         <v>-0.149658</v>
@@ -3920,10 +6146,22 @@
       <c r="D188">
         <v>-0.15131</v>
       </c>
-    </row>
-    <row r="189" spans="1:4">
+      <c r="E188">
+        <v>-0.21892682968</v>
+      </c>
+      <c r="F188">
+        <v>-0.1547679173235746</v>
+      </c>
+      <c r="G188">
+        <v>-0.004485653023706293</v>
+      </c>
+      <c r="H188">
+        <v>0.1465806625869053</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8">
       <c r="A189" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B189">
         <v>-0.141968</v>
@@ -3934,10 +6172,22 @@
       <c r="D189">
         <v>-0.14362</v>
       </c>
-    </row>
-    <row r="190" spans="1:4">
+      <c r="E189">
+        <v>-0.2731988578</v>
+      </c>
+      <c r="F189">
+        <v>-0.3311045584013583</v>
+      </c>
+      <c r="G189">
+        <v>-0.2761601490375628</v>
+      </c>
+      <c r="H189">
+        <v>-0.1474614235364415</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8">
       <c r="A190" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B190">
         <v>-0.052589</v>
@@ -3948,10 +6198,22 @@
       <c r="D190">
         <v>-0.05403599999999999</v>
       </c>
-    </row>
-    <row r="191" spans="1:4">
+      <c r="E190">
+        <v>-0.18989534968</v>
+      </c>
+      <c r="F190">
+        <v>-0.3124722843199191</v>
+      </c>
+      <c r="G190">
+        <v>-0.3672489924835826</v>
+      </c>
+      <c r="H190">
+        <v>-0.315273559224169</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8">
       <c r="A191" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B191">
         <v>0.139752</v>
@@ -3962,10 +6224,22 @@
       <c r="D191">
         <v>0.138305</v>
       </c>
-    </row>
-    <row r="192" spans="1:4">
+      <c r="E191">
+        <v>0.07679555102000002</v>
+      </c>
+      <c r="F191">
+        <v>-0.07785382601749247</v>
+      </c>
+      <c r="G191">
+        <v>-0.2173837636027857</v>
+      </c>
+      <c r="H191">
+        <v>-0.2797363643890245</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8">
       <c r="A192" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B192">
         <v>0.038851</v>
@@ -3976,10 +6250,22 @@
       <c r="D192">
         <v>0.03761</v>
       </c>
-    </row>
-    <row r="193" spans="1:4">
+      <c r="E192">
+        <v>0.1811166510499997</v>
+      </c>
+      <c r="F192">
+        <v>0.1172938316938621</v>
+      </c>
+      <c r="G192">
+        <v>-0.04317190841401042</v>
+      </c>
+      <c r="H192">
+        <v>-0.1879495669518865</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8">
       <c r="A193" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B193">
         <v>0.039778</v>
@@ -3990,10 +6276,22 @@
       <c r="D193">
         <v>0.038537</v>
       </c>
-    </row>
-    <row r="194" spans="1:4">
+      <c r="E193">
+        <v>0.07759637657000007</v>
+      </c>
+      <c r="F193">
+        <v>0.2266333434315135</v>
+      </c>
+      <c r="G193">
+        <v>0.1603509840858486</v>
+      </c>
+      <c r="H193">
+        <v>-0.006298624248561091</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8">
       <c r="A194" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B194">
         <v>-0.249394</v>
@@ -4004,10 +6302,22 @@
       <c r="D194">
         <v>-0.250635</v>
       </c>
-    </row>
-    <row r="195" spans="1:4">
+      <c r="E194">
+        <v>-0.2217567209949999</v>
+      </c>
+      <c r="F194">
+        <v>-0.1924869912716218</v>
+      </c>
+      <c r="G194">
+        <v>-0.08080390459944375</v>
+      </c>
+      <c r="H194">
+        <v>-0.130473584810508</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8">
       <c r="A195" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B195">
         <v>-0.021766</v>
@@ -4018,10 +6328,22 @@
       <c r="D195">
         <v>-0.023007</v>
       </c>
-    </row>
-    <row r="196" spans="1:4">
+      <c r="E195">
+        <v>-0.2678756405549999</v>
+      </c>
+      <c r="F195">
+        <v>-0.2396617641150679</v>
+      </c>
+      <c r="G195">
+        <v>-0.2110654430634357</v>
+      </c>
+      <c r="H195">
+        <v>-0.1019518491663244</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8">
       <c r="A196" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B196">
         <v>0.140934</v>
@@ -4032,10 +6354,22 @@
       <c r="D196">
         <v>0.139693</v>
       </c>
-    </row>
-    <row r="197" spans="1:4">
+      <c r="E196">
+        <v>0.1134720831490001</v>
+      </c>
+      <c r="F196">
+        <v>-0.1656029924110495</v>
+      </c>
+      <c r="G196">
+        <v>-0.133447834929594</v>
+      </c>
+      <c r="H196">
+        <v>-0.1008568080012961</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8">
       <c r="A197" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B197">
         <v>-0.019968</v>
@@ -4046,10 +6380,22 @@
       <c r="D197">
         <v>-0.021209</v>
       </c>
-    </row>
-    <row r="198" spans="1:4">
+      <c r="E197">
+        <v>0.1155212511629999</v>
+      </c>
+      <c r="F197">
+        <v>0.08985645373749307</v>
+      </c>
+      <c r="G197">
+        <v>-0.1832997185450036</v>
+      </c>
+      <c r="H197">
+        <v>-0.1518265397985723</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8">
       <c r="A198" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B198">
         <v>-0.003879</v>
@@ -4060,10 +6406,22 @@
       <c r="D198">
         <v>-0.00512</v>
       </c>
-    </row>
-    <row r="199" spans="1:4">
+      <c r="E198">
+        <v>-0.02622040992000008</v>
+      </c>
+      <c r="F198">
+        <v>0.1098097823570454</v>
+      </c>
+      <c r="G198">
+        <v>0.08427638869435716</v>
+      </c>
+      <c r="H198">
+        <v>-0.1874812239860532</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8">
       <c r="A199" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B199">
         <v>0.024443</v>
@@ -4074,10 +6432,22 @@
       <c r="D199">
         <v>0.023202</v>
       </c>
-    </row>
-    <row r="200" spans="1:4">
+      <c r="E199">
+        <v>0.01796320575999988</v>
+      </c>
+      <c r="F199">
+        <v>-0.003626775870963939</v>
+      </c>
+      <c r="G199">
+        <v>0.1355595889272936</v>
+      </c>
+      <c r="H199">
+        <v>0.1094337694648435</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8">
       <c r="A200" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B200">
         <v>0.01344</v>
@@ -4088,10 +6458,22 @@
       <c r="D200">
         <v>0.012199</v>
       </c>
-    </row>
-    <row r="201" spans="1:4">
+      <c r="E200">
+        <v>0.03568404119799995</v>
+      </c>
+      <c r="F200">
+        <v>0.03038133890706618</v>
+      </c>
+      <c r="G200">
+        <v>0.008527981090186154</v>
+      </c>
+      <c r="H200">
+        <v>0.1494122803526177</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8">
       <c r="A201" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B201">
         <v>0.041826</v>
@@ -4102,10 +6484,22 @@
       <c r="D201">
         <v>0.040585</v>
       </c>
-    </row>
-    <row r="202" spans="1:4">
+      <c r="E201">
+        <v>0.05327909641500006</v>
+      </c>
+      <c r="F201">
+        <v>0.07771727801002082</v>
+      </c>
+      <c r="G201">
+        <v>0.07219936554660955</v>
+      </c>
+      <c r="H201">
+        <v>0.04945908920273134</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8">
       <c r="A202" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B202">
         <v>-0.019616</v>
@@ -4116,10 +6510,22 @@
       <c r="D202">
         <v>-0.020857</v>
       </c>
-    </row>
-    <row r="203" spans="1:4">
+      <c r="E202">
+        <v>0.01888151865499998</v>
+      </c>
+      <c r="F202">
+        <v>0.0313108543010725</v>
+      </c>
+      <c r="G202">
+        <v>0.05523932874256587</v>
+      </c>
+      <c r="H202">
+        <v>0.04983650337940393</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8">
       <c r="A203" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B203">
         <v>0.029781</v>
@@ -4130,10 +6536,22 @@
       <c r="D203">
         <v>0.02854</v>
       </c>
-    </row>
-    <row r="204" spans="1:4">
+      <c r="E203">
+        <v>0.007087741219999888</v>
+      </c>
+      <c r="F203">
+        <v>0.04796039719741363</v>
+      </c>
+      <c r="G203">
+        <v>0.06074446608282513</v>
+      </c>
+      <c r="H203">
+        <v>0.08535585918487865</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8">
       <c r="A204" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B204">
         <v>0.042922</v>
@@ -4144,10 +6562,22 @@
       <c r="D204">
         <v>0.041681</v>
       </c>
-    </row>
-    <row r="205" spans="1:4">
+      <c r="E204">
+        <v>0.07141057574000009</v>
+      </c>
+      <c r="F204">
+        <v>0.0490641653617907</v>
+      </c>
+      <c r="G204">
+        <v>0.09164043451299908</v>
+      </c>
+      <c r="H204">
+        <v>0.1049573561736235</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8">
       <c r="A205" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B205">
         <v>-0.048279</v>
@@ -4158,10 +6588,22 @@
       <c r="D205">
         <v>-0.04952</v>
       </c>
-    </row>
-    <row r="206" spans="1:4">
+      <c r="E205">
+        <v>-0.009903043119999899</v>
+      </c>
+      <c r="F205">
+        <v>0.01835432402935533</v>
+      </c>
+      <c r="G205">
+        <v>-0.002885492106925236</v>
+      </c>
+      <c r="H205">
+        <v>0.0375824001959153</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8">
       <c r="A206" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B206">
         <v>0.009601999999999999</v>
@@ -4172,10 +6614,22 @@
       <c r="D206">
         <v>0.008361</v>
       </c>
-    </row>
-    <row r="207" spans="1:4">
+      <c r="E206">
+        <v>-0.0415730367199999</v>
+      </c>
+      <c r="F206">
+        <v>-0.001624842463526122</v>
+      </c>
+      <c r="G206">
+        <v>0.0268687845325648</v>
+      </c>
+      <c r="H206">
+        <v>0.005451382293568896</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8">
       <c r="A207" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B207">
         <v>0.026891</v>
@@ -4186,10 +6640,22 @@
       <c r="D207">
         <v>0.02565</v>
       </c>
-    </row>
-    <row r="208" spans="1:4">
+      <c r="E207">
+        <v>0.03422545965000001</v>
+      </c>
+      <c r="F207">
+        <v>-0.01698938511186798</v>
+      </c>
+      <c r="G207">
+        <v>0.02398348032728448</v>
+      </c>
+      <c r="H207">
+        <v>0.05320796885582513</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8">
       <c r="A208" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B208">
         <v>-0.005422</v>
@@ -4200,10 +6666,22 @@
       <c r="D208">
         <v>-0.006663</v>
       </c>
-    </row>
-    <row r="209" spans="1:4">
+      <c r="E208">
+        <v>0.01881609404999995</v>
+      </c>
+      <c r="F208">
+        <v>0.02733441541235204</v>
+      </c>
+      <c r="G208">
+        <v>-0.02353918483886763</v>
+      </c>
+      <c r="H208">
+        <v>0.01716067839786373</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8">
       <c r="A209" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B209">
         <v>-0.023783</v>
@@ -4214,10 +6692,22 @@
       <c r="D209">
         <v>-0.025024</v>
       </c>
-    </row>
-    <row r="210" spans="1:4">
+      <c r="E209">
+        <v>-0.03152026508799999</v>
+      </c>
+      <c r="F209">
+        <v>-0.006678759887507324</v>
+      </c>
+      <c r="G209">
+        <v>0.001626399001073198</v>
+      </c>
+      <c r="H209">
+        <v>-0.04797414027745983</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8">
       <c r="A210" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B210">
         <v>-0.018796</v>
@@ -4228,10 +6718,22 @@
       <c r="D210">
         <v>-0.020037</v>
       </c>
-    </row>
-    <row r="211" spans="1:4">
+      <c r="E210">
+        <v>-0.04455959411200006</v>
+      </c>
+      <c r="F210">
+        <v>-0.05092569353643173</v>
+      </c>
+      <c r="G210">
+        <v>-0.02658193757564131</v>
+      </c>
+      <c r="H210">
+        <v>-0.0184431891557113</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8">
       <c r="A211" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="B211">
         <v>0.04212</v>
@@ -4242,10 +6744,22 @@
       <c r="D211">
         <v>0.040879</v>
       </c>
-    </row>
-    <row r="212" spans="1:4">
+      <c r="E211">
+        <v>0.02002290747699997</v>
+      </c>
+      <c r="F211">
+        <v>-0.005502145759704646</v>
+      </c>
+      <c r="G211">
+        <v>-0.01212848496250762</v>
+      </c>
+      <c r="H211">
+        <v>0.01321041939820389</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8">
       <c r="A212" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B212">
         <v>0.029051</v>
@@ -4256,10 +6770,22 @@
       <c r="D212">
         <v>0.02781</v>
       </c>
-    </row>
-    <row r="213" spans="1:4">
+      <c r="E212">
+        <v>0.06982584499</v>
+      </c>
+      <c r="F212">
+        <v>0.04838974453393541</v>
+      </c>
+      <c r="G212">
+        <v>0.02215483956671815</v>
+      </c>
+      <c r="H212">
+        <v>0.01534422187068518</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8">
       <c r="A213" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="B213">
         <v>0.027342</v>
@@ -4270,10 +6796,22 @@
       <c r="D213">
         <v>0.026101</v>
       </c>
-    </row>
-    <row r="214" spans="1:4">
+      <c r="E213">
+        <v>0.05463686881000007</v>
+      </c>
+      <c r="F213">
+        <v>0.09774936937008394</v>
+      </c>
+      <c r="G213">
+        <v>0.07575376525601563</v>
+      </c>
+      <c r="H213">
+        <v>0.04883410303424895</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8">
       <c r="A214" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B214">
         <v>0.007729</v>
@@ -4284,10 +6822,22 @@
       <c r="D214">
         <v>0.006488</v>
       </c>
-    </row>
-    <row r="215" spans="1:4">
+      <c r="E214">
+        <v>0.03275834328799987</v>
+      </c>
+      <c r="F214">
+        <v>0.06147935281483941</v>
+      </c>
+      <c r="G214">
+        <v>0.1048715672785572</v>
+      </c>
+      <c r="H214">
+        <v>0.08273325568499668</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8">
       <c r="A215" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B215">
         <v>0.014066</v>
@@ -4298,10 +6848,22 @@
       <c r="D215">
         <v>0.012825</v>
       </c>
-    </row>
-    <row r="216" spans="1:4">
+      <c r="E215">
+        <v>0.01939620860000013</v>
+      </c>
+      <c r="F215">
+        <v>0.04600346904066854</v>
+      </c>
+      <c r="G215">
+        <v>0.07509282551468988</v>
+      </c>
+      <c r="H215">
+        <v>0.1190415451289049</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8">
       <c r="A216" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B216">
         <v>-0.025873</v>
@@ -4312,10 +6874,22 @@
       <c r="D216">
         <v>-0.027114</v>
       </c>
-    </row>
-    <row r="217" spans="1:4">
+      <c r="E216">
+        <v>-0.0146367370499999</v>
+      </c>
+      <c r="F216">
+        <v>-0.00824370019998022</v>
+      </c>
+      <c r="G216">
+        <v>0.0176421309810999</v>
+      </c>
+      <c r="H216">
+        <v>0.04594275864368469</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8">
       <c r="A217" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B217">
         <v>0.000886</v>
@@ -4326,10 +6900,22 @@
       <c r="D217">
         <v>-0.000355</v>
       </c>
-    </row>
-    <row r="218" spans="1:4">
+      <c r="E217">
+        <v>-0.02745937452999991</v>
+      </c>
+      <c r="F217">
+        <v>-0.01498654100834718</v>
+      </c>
+      <c r="G217">
+        <v>-0.00859577368640918</v>
+      </c>
+      <c r="H217">
+        <v>0.01728086802460171</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8">
       <c r="A218" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B218">
         <v>0.039331</v>
@@ -4340,10 +6926,22 @@
       <c r="D218">
         <v>0.03809</v>
       </c>
-    </row>
-    <row r="219" spans="1:4">
+      <c r="E218">
+        <v>0.03772147804999992</v>
+      </c>
+      <c r="F218">
+        <v>0.009584697894152283</v>
+      </c>
+      <c r="G218">
+        <v>0.02253262164464487</v>
+      </c>
+      <c r="H218">
+        <v>0.02916681329387538</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8">
       <c r="A219" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B219">
         <v>-0.056415</v>
@@ -4354,10 +6952,22 @@
       <c r="D219">
         <v>-0.057656</v>
       </c>
-    </row>
-    <row r="220" spans="1:4">
+      <c r="E219">
+        <v>-0.02176211704000008</v>
+      </c>
+      <c r="F219">
+        <v>-0.02210939148845092</v>
+      </c>
+      <c r="G219">
+        <v>-0.04862391744763295</v>
+      </c>
+      <c r="H219">
+        <v>-0.03642251918889883</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8">
       <c r="A220" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B220">
         <v>-0.014682</v>
@@ -4368,10 +6978,22 @@
       <c r="D220">
         <v>-0.015923</v>
       </c>
-    </row>
-    <row r="221" spans="1:4">
+      <c r="E220">
+        <v>-0.07266094351200003</v>
+      </c>
+      <c r="F220">
+        <v>-0.03733859885037216</v>
+      </c>
+      <c r="G220">
+        <v>-0.03768034364778039</v>
+      </c>
+      <c r="H220">
+        <v>-0.06377267881011428</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8">
       <c r="A221" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="B221">
         <v>-0.033125</v>
@@ -4382,10 +7004,22 @@
       <c r="D221">
         <v>-0.034366</v>
       </c>
-    </row>
-    <row r="222" spans="1:4">
+      <c r="E221">
+        <v>-0.04974179018199998</v>
+      </c>
+      <c r="F221">
+        <v>-0.1045298775272666</v>
+      </c>
+      <c r="G221">
+        <v>-0.07042142056228029</v>
+      </c>
+      <c r="H221">
+        <v>-0.07075142095798082</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8">
       <c r="A222" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B222">
         <v>0.001419</v>
@@ -4396,10 +7030,22 @@
       <c r="D222">
         <v>0.000178</v>
       </c>
-    </row>
-    <row r="223" spans="1:4">
+      <c r="E222">
+        <v>-0.03419411714800002</v>
+      </c>
+      <c r="F222">
+        <v>-0.04957264422065233</v>
+      </c>
+      <c r="G222">
+        <v>-0.1043704838454664</v>
+      </c>
+      <c r="H222">
+        <v>-0.07025595557514042</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8">
       <c r="A223" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B223">
         <v>-0.078836</v>
@@ -4410,10 +7056,22 @@
       <c r="D223">
         <v>-0.08007700000000001</v>
       </c>
-    </row>
-    <row r="224" spans="1:4">
+      <c r="E223">
+        <v>-0.079913253706</v>
+      </c>
+      <c r="F223">
+        <v>-0.1115329548291396</v>
+      </c>
+      <c r="G223">
+        <v>-0.1256800155893951</v>
+      </c>
+      <c r="H223">
+        <v>-0.176089808610573</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8">
       <c r="A224" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B224">
         <v>0.011864</v>
@@ -4424,10 +7082,22 @@
       <c r="D224">
         <v>0.010623</v>
       </c>
-    </row>
-    <row r="225" spans="1:4">
+      <c r="E224">
+        <v>-0.07030465797099994</v>
+      </c>
+      <c r="F224">
+        <v>-0.07013917220011878</v>
+      </c>
+      <c r="G224">
+        <v>-0.1020947694082895</v>
+      </c>
+      <c r="H224">
+        <v>-0.1163921143950012</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8">
       <c r="A225" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B225">
         <v>-0.05692</v>
@@ -4438,10 +7108,22 @@
       <c r="D225">
         <v>-0.058161</v>
       </c>
-    </row>
-    <row r="226" spans="1:4">
+      <c r="E225">
+        <v>-0.04815584430300002</v>
+      </c>
+      <c r="F225">
+        <v>-0.1243766687587486</v>
+      </c>
+      <c r="G225">
+        <v>-0.1242208078057877</v>
+      </c>
+      <c r="H225">
+        <v>-0.154317835524734</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8">
       <c r="A226" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B226">
         <v>0.02581</v>
@@ -4452,10 +7134,22 @@
       <c r="D226">
         <v>0.024569</v>
       </c>
-    </row>
-    <row r="227" spans="1:4">
+      <c r="E226">
+        <v>-0.03502095760899993</v>
+      </c>
+      <c r="F226">
+        <v>-0.02476998524168039</v>
+      </c>
+      <c r="G226">
+        <v>-0.1028634791334823</v>
+      </c>
+      <c r="H226">
+        <v>-0.1027037888327681</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8">
       <c r="A227" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B227">
         <v>-0.08741500000000001</v>
@@ -4466,10 +7160,22 @@
       <c r="D227">
         <v>-0.08865600000000001</v>
       </c>
-    </row>
-    <row r="228" spans="1:4">
+      <c r="E227">
+        <v>-0.06626518926400005</v>
+      </c>
+      <c r="F227">
+        <v>-0.1205721395912165</v>
+      </c>
+      <c r="G227">
+        <v>-0.111229977430094</v>
+      </c>
+      <c r="H227">
+        <v>-0.1824000145274243</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8">
       <c r="A228" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B228">
         <v>0.007816999999999999</v>
@@ -4480,10 +7186,22 @@
       <c r="D228">
         <v>0.006575999999999999</v>
       </c>
-    </row>
-    <row r="229" spans="1:4">
+      <c r="E228">
+        <v>-0.08266300185600017</v>
+      </c>
+      <c r="F228">
+        <v>-0.06012494914860023</v>
+      </c>
+      <c r="G228">
+        <v>-0.1147890219811684</v>
+      </c>
+      <c r="H228">
+        <v>-0.1053854257616744</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8">
       <c r="A229" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B229">
         <v>-0.042589</v>
@@ -4494,10 +7212,22 @@
       <c r="D229">
         <v>-0.04383</v>
       </c>
-    </row>
-    <row r="230" spans="1:4">
+      <c r="E229">
+        <v>-0.03754222608000013</v>
+      </c>
+      <c r="F229">
+        <v>-0.1228698824846517</v>
+      </c>
+      <c r="G229">
+        <v>-0.1013196726274171</v>
+      </c>
+      <c r="H229">
+        <v>-0.1535878191477338</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8">
       <c r="A230" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B230">
         <v>0.032232</v>
@@ -4508,10 +7238,22 @@
       <c r="D230">
         <v>0.030991</v>
       </c>
-    </row>
-    <row r="231" spans="1:4">
+      <c r="E230">
+        <v>-0.01419733553000002</v>
+      </c>
+      <c r="F230">
+        <v>-0.00771469720844542</v>
+      </c>
+      <c r="G230">
+        <v>-0.0956867430127335</v>
+      </c>
+      <c r="H230">
+        <v>-0.07346867060181339</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8">
       <c r="A231" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B231">
         <v>0.155155</v>
@@ -4522,10 +7264,22 @@
       <c r="D231">
         <v>0.153914</v>
       </c>
-    </row>
-    <row r="232" spans="1:4">
+      <c r="E231">
+        <v>0.1896749487739999</v>
+      </c>
+      <c r="F231">
+        <v>0.1375314957692355</v>
+      </c>
+      <c r="G231">
+        <v>0.1450119028854138</v>
+      </c>
+      <c r="H231">
+        <v>0.04349972762320453</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8">
       <c r="A232" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B232">
         <v>0.06482300000000001</v>
@@ -4536,10 +7290,22 @@
       <c r="D232">
         <v>0.063582</v>
       </c>
-    </row>
-    <row r="233" spans="1:4">
+      <c r="E232">
+        <v>0.2272821599479999</v>
+      </c>
+      <c r="F232">
+        <v>0.2653168613669483</v>
+      </c>
+      <c r="G232">
+        <v>0.209858023333235</v>
+      </c>
+      <c r="H232">
+        <v>0.2178140496946741</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8">
       <c r="A233" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B233">
         <v>-0.008518</v>
@@ -4550,10 +7316,22 @@
       <c r="D233">
         <v>-0.009759</v>
       </c>
-    </row>
-    <row r="234" spans="1:4">
+      <c r="E233">
+        <v>0.05320250326200004</v>
+      </c>
+      <c r="F233">
+        <v>0.2153051133490675</v>
+      </c>
+      <c r="G233">
+        <v>0.2529686341168684</v>
+      </c>
+      <c r="H233">
+        <v>0.1980510188835261</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8">
       <c r="A234" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B234">
         <v>-0.060281</v>
@@ -4564,10 +7342,22 @@
       <c r="D234">
         <v>-0.061522</v>
       </c>
-    </row>
-    <row r="235" spans="1:4">
+      <c r="E234">
+        <v>-0.07068060680199995</v>
+      </c>
+      <c r="F234">
+        <v>-0.01159262114368464</v>
+      </c>
+      <c r="G234">
+        <v>0.1405371121656063</v>
+      </c>
+      <c r="H234">
+        <v>0.1758834978087305</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8">
       <c r="A235" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B235">
         <v>0.034103</v>
@@ -4578,10 +7368,22 @@
       <c r="D235">
         <v>0.032862</v>
       </c>
-    </row>
-    <row r="236" spans="1:4">
+      <c r="E235">
+        <v>-0.03068173596400003</v>
+      </c>
+      <c r="F235">
+        <v>-0.04014131290272727</v>
+      </c>
+      <c r="G235">
+        <v>0.02088842214029163</v>
+      </c>
+      <c r="H235">
+        <v>0.1780174427455923</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8">
       <c r="A236" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B236">
         <v>-0.002351</v>
@@ -4592,10 +7394,22 @@
       <c r="D236">
         <v>-0.003592</v>
       </c>
-    </row>
-    <row r="237" spans="1:4">
+      <c r="E236">
+        <v>0.02915195969599993</v>
+      </c>
+      <c r="F236">
+        <v>-0.03416352716841742</v>
+      </c>
+      <c r="G236">
+        <v>-0.04358912530678072</v>
+      </c>
+      <c r="H236">
+        <v>0.01722139092796371</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8">
       <c r="A237" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="B237">
         <v>-0.009693999999999999</v>
@@ -4606,10 +7420,22 @@
       <c r="D237">
         <v>-0.010935</v>
       </c>
-    </row>
-    <row r="238" spans="1:4">
+      <c r="E237">
+        <v>-0.0144877214800001</v>
+      </c>
+      <c r="F237">
+        <v>0.01789818301672419</v>
+      </c>
+      <c r="G237">
+        <v>-0.04472494899883084</v>
+      </c>
+      <c r="H237">
+        <v>-0.05404747822155109</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8">
       <c r="A238" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B238">
         <v>0.006822</v>
@@ -4620,10 +7446,22 @@
       <c r="D238">
         <v>0.005581</v>
       </c>
-    </row>
-    <row r="239" spans="1:4">
+      <c r="E238">
+        <v>-0.005415028234999952</v>
+      </c>
+      <c r="F238">
+        <v>-0.00898757745357992</v>
+      </c>
+      <c r="G238">
+        <v>0.02357907277614069</v>
+      </c>
+      <c r="H238">
+        <v>-0.03939355893919327</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8">
       <c r="A239" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="B239">
         <v>0.012298</v>
@@ -4634,10 +7472,22 @@
       <c r="D239">
         <v>0.011057</v>
       </c>
-    </row>
-    <row r="240" spans="1:4">
+      <c r="E239">
+        <v>0.01669970911700025</v>
+      </c>
+      <c r="F239">
+        <v>0.005582097797805829</v>
+      </c>
+      <c r="G239">
+        <v>0.001970046902515898</v>
+      </c>
+      <c r="H239">
+        <v>0.03489678658382656</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8">
       <c r="A240" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B240">
         <v>-0.015519</v>
@@ -4648,10 +7498,22 @@
       <c r="D240">
         <v>-0.01676</v>
       </c>
-    </row>
-    <row r="241" spans="1:4">
+      <c r="E240">
+        <v>-0.005888315319999893</v>
+      </c>
+      <c r="F240">
+        <v>-0.0003401780078006178</v>
+      </c>
+      <c r="G240">
+        <v>-0.01127145816128539</v>
+      </c>
+      <c r="H240">
+        <v>-0.01482297108357022</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8">
       <c r="A241" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B241">
         <v>0.068325</v>
@@ -4662,10 +7524,22 @@
       <c r="D241">
         <v>0.06708399999999999</v>
       </c>
-    </row>
-    <row r="242" spans="1:4">
+      <c r="E241">
+        <v>0.04919967215999987</v>
+      </c>
+      <c r="F241">
+        <v>0.06080067293507319</v>
+      </c>
+      <c r="G241">
+        <v>0.06672100149072402</v>
+      </c>
+      <c r="H241">
+        <v>0.05505640733942285</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8">
       <c r="A242" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B242">
         <v>-0.012218</v>
@@ -4676,10 +7550,22 @@
       <c r="D242">
         <v>-0.013459</v>
       </c>
-    </row>
-    <row r="243" spans="1:4">
+      <c r="E242">
+        <v>0.05272211644399993</v>
+      </c>
+      <c r="F242">
+        <v>0.03507849377239847</v>
+      </c>
+      <c r="G242">
+        <v>0.04652335667804008</v>
+      </c>
+      <c r="H242">
+        <v>0.05236400353166037</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8">
       <c r="A243" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B243">
         <v>-0.010253</v>
@@ -4690,10 +7576,22 @@
       <c r="D243">
         <v>-0.011494</v>
       </c>
-    </row>
-    <row r="244" spans="1:4">
+      <c r="E243">
+        <v>-0.02479830225400004</v>
+      </c>
+      <c r="F243">
+        <v>0.0406221284375925</v>
+      </c>
+      <c r="G243">
+        <v>0.02318130156497844</v>
+      </c>
+      <c r="H243">
+        <v>0.03449461721638269</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8">
       <c r="A244" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B244">
         <v>-0.055627</v>
@@ -4704,10 +7602,22 @@
       <c r="D244">
         <v>-0.056868</v>
       </c>
-    </row>
-    <row r="245" spans="1:4">
+      <c r="E244">
+        <v>-0.067708359208</v>
+      </c>
+      <c r="F244">
+        <v>-0.08025607240141963</v>
+      </c>
+      <c r="G244">
+        <v>-0.01855597076239657</v>
+      </c>
+      <c r="H244">
+        <v>-0.03500497269241876</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8">
       <c r="A245" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="B245">
         <v>0.046845</v>
@@ -4718,10 +7628,22 @@
       <c r="D245">
         <v>0.045604</v>
       </c>
-    </row>
-    <row r="246" spans="1:4">
+      <c r="E245">
+        <v>-0.0138574082720001</v>
+      </c>
+      <c r="F245">
+        <v>-0.02519213122132169</v>
+      </c>
+      <c r="G245">
+        <v>-0.03831207032721395</v>
+      </c>
+      <c r="H245">
+        <v>0.02620180274695505</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8">
       <c r="A246" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B246">
         <v>0.002729</v>
@@ -4732,10 +7654,22 @@
       <c r="D246">
         <v>0.001488</v>
       </c>
-    </row>
-    <row r="247" spans="1:4">
+      <c r="E246">
+        <v>0.04715985875199991</v>
+      </c>
+      <c r="F246">
+        <v>-0.01239002809550893</v>
+      </c>
+      <c r="G246">
+        <v>-0.02374161711257905</v>
+      </c>
+      <c r="H246">
+        <v>-0.03688107868786095</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8">
       <c r="A247" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B247">
         <v>0.074832</v>
@@ -4746,10 +7680,22 @@
       <c r="D247">
         <v>0.07359099999999999</v>
       </c>
-    </row>
-    <row r="248" spans="1:4">
+      <c r="E247">
+        <v>0.07518850340799998</v>
+      </c>
+      <c r="F247">
+        <v>0.1242213999174182</v>
+      </c>
+      <c r="G247">
+        <v>0.06028917734691452</v>
+      </c>
+      <c r="H247">
+        <v>0.04810221354248911</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8">
       <c r="A248" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B248">
         <v>0.130767</v>
@@ -4760,10 +7706,22 @@
       <c r="D248">
         <v>0.129526</v>
       </c>
-    </row>
-    <row r="249" spans="1:4">
+      <c r="E248">
+        <v>0.2126489478660001</v>
+      </c>
+      <c r="F248">
+        <v>0.2144533695004247</v>
+      </c>
+      <c r="G248">
+        <v>0.2698373009631219</v>
+      </c>
+      <c r="H248">
+        <v>0.1976241933319509</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8">
       <c r="A249" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="B249">
         <v>0.027227</v>
@@ -4774,10 +7732,22 @@
       <c r="D249">
         <v>0.025986</v>
       </c>
-    </row>
-    <row r="250" spans="1:4">
+      <c r="E249">
+        <v>0.1588778626360001</v>
+      </c>
+      <c r="F249">
+        <v>0.244160843425246</v>
+      </c>
+      <c r="G249">
+        <v>0.2460121547602627</v>
+      </c>
+      <c r="H249">
+        <v>0.3028352930659497</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8">
       <c r="A250" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B250">
         <v>-0.056115</v>
@@ -4788,10 +7758,22 @@
       <c r="D250">
         <v>-0.057356</v>
       </c>
-    </row>
-    <row r="251" spans="1:4">
+      <c r="E250">
+        <v>-0.03286045301599994</v>
+      </c>
+      <c r="F250">
+        <v>0.09240926394664983</v>
+      </c>
+      <c r="G250">
+        <v>0.1728007540897476</v>
+      </c>
+      <c r="H250">
+        <v>0.174545881611833</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8">
       <c r="A251" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B251">
         <v>0.010709</v>
@@ -4802,10 +7784,22 @@
       <c r="D251">
         <v>0.009468000000000001</v>
       </c>
-    </row>
-    <row r="252" spans="1:4">
+      <c r="E251">
+        <v>-0.04843104660799991</v>
+      </c>
+      <c r="F251">
+        <v>-0.02370357578515536</v>
+      </c>
+      <c r="G251">
+        <v>0.1027521948576968</v>
+      </c>
+      <c r="H251">
+        <v>0.1839048316294694</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8">
       <c r="A252" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B252">
         <v>0.042035</v>
@@ -4816,10 +7810,22 @@
       <c r="D252">
         <v>0.040794</v>
       </c>
-    </row>
-    <row r="253" spans="1:4">
+      <c r="E252">
+        <v>0.0506482375920001</v>
+      </c>
+      <c r="F252">
+        <v>-0.009612742723326684</v>
+      </c>
+      <c r="G252">
+        <v>0.01612346054426506</v>
+      </c>
+      <c r="H252">
+        <v>0.1477378678947217</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8">
       <c r="A253" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="B253">
         <v>0.026518</v>
@@ -4830,10 +7836,22 @@
       <c r="D253">
         <v>0.025277</v>
       </c>
-    </row>
-    <row r="254" spans="1:4">
+      <c r="E253">
+        <v>0.06710214993800001</v>
+      </c>
+      <c r="F253">
+        <v>0.07720547309361314</v>
+      </c>
+      <c r="G253">
+        <v>0.01542127597885568</v>
+      </c>
+      <c r="H253">
+        <v>0.04180801325644246</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8">
       <c r="A254" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B254">
         <v>-0.001179</v>
@@ -4844,10 +7862,22 @@
       <c r="D254">
         <v>-0.00242</v>
       </c>
-    </row>
-    <row r="255" spans="1:4">
+      <c r="E254">
+        <v>0.02279582965999993</v>
+      </c>
+      <c r="F254">
+        <v>0.06451976273515014</v>
+      </c>
+      <c r="G254">
+        <v>0.07459863584872672</v>
+      </c>
+      <c r="H254">
+        <v>0.01296395649098692</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8">
       <c r="A255" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="B255">
         <v>0.003571</v>
@@ -4858,10 +7888,22 @@
       <c r="D255">
         <v>0.00233</v>
       </c>
-    </row>
-    <row r="256" spans="1:4">
+      <c r="E255">
+        <v>-9.563860000005864e-05</v>
+      </c>
+      <c r="F255">
+        <v>0.0251789439431076</v>
+      </c>
+      <c r="G255">
+        <v>0.06700009378232297</v>
+      </c>
+      <c r="H255">
+        <v>0.07710245067025423</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8">
       <c r="A256" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B256">
         <v>-0.024019</v>
@@ -4872,10 +7914,22 @@
       <c r="D256">
         <v>-0.02526</v>
       </c>
-    </row>
-    <row r="257" spans="1:4">
+      <c r="E256">
+        <v>-0.02298885579999999</v>
+      </c>
+      <c r="F256">
+        <v>-0.02535322276896401</v>
+      </c>
+      <c r="G256">
+        <v>-0.0007170761808952264</v>
+      </c>
+      <c r="H256">
+        <v>0.0400476714133815</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8">
       <c r="A257" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B257">
         <v>0.014812</v>
@@ -4886,10 +7940,22 @@
       <c r="D257">
         <v>0.013571</v>
       </c>
-    </row>
-    <row r="258" spans="1:4">
+      <c r="E257">
+        <v>-0.01203180345999999</v>
+      </c>
+      <c r="F257">
+        <v>-0.009729837562061805</v>
+      </c>
+      <c r="G257">
+        <v>-0.01212629135516163</v>
+      </c>
+      <c r="H257">
+        <v>0.01284419237825385</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8">
       <c r="A258" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B258">
         <v>0.049441</v>
@@ -4900,10 +7966,22 @@
       <c r="D258">
         <v>0.0482</v>
       </c>
-    </row>
-    <row r="259" spans="1:4">
+      <c r="E258">
+        <v>0.06242512220000007</v>
+      </c>
+      <c r="F258">
+        <v>0.03558826361322809</v>
+      </c>
+      <c r="G258">
+        <v>0.03800118426744681</v>
+      </c>
+      <c r="H258">
+        <v>0.03548922140151967</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8">
       <c r="A259" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="B259">
         <v>0.00501</v>
@@ -4914,10 +7992,22 @@
       <c r="D259">
         <v>0.003769</v>
       </c>
-    </row>
-    <row r="260" spans="1:4">
+      <c r="E259">
+        <v>0.05215066579999994</v>
+      </c>
+      <c r="F259">
+        <v>0.06642940248557183</v>
+      </c>
+      <c r="G259">
+        <v>0.03949139577878635</v>
+      </c>
+      <c r="H259">
+        <v>0.04191341073095067</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8">
       <c r="A260" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B260">
         <v>-0.041398</v>
@@ -4928,10 +8018,22 @@
       <c r="D260">
         <v>-0.042639</v>
       </c>
-    </row>
-    <row r="261" spans="1:4">
+      <c r="E260">
+        <v>-0.03903070639100004</v>
+      </c>
+      <c r="F260">
+        <v>0.007288013560953654</v>
+      </c>
+      <c r="G260">
+        <v>0.02095791919298962</v>
+      </c>
+      <c r="H260">
+        <v>-0.004831477845825272</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8">
       <c r="A261" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="B261">
         <v>0.04032</v>
@@ -4942,10 +8044,22 @@
       <c r="D261">
         <v>0.039079</v>
       </c>
-    </row>
-    <row r="262" spans="1:4">
+      <c r="E261">
+        <v>-0.005226289480999902</v>
+      </c>
+      <c r="F261">
+        <v>-0.001476987366053839</v>
+      </c>
+      <c r="G261">
+        <v>0.04665182184290217</v>
+      </c>
+      <c r="H261">
+        <v>0.0608559337171326</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8">
       <c r="A262" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B262">
         <v>0.00267</v>
@@ -4956,10 +8070,22 @@
       <c r="D262">
         <v>0.001429</v>
       </c>
-    </row>
-    <row r="263" spans="1:4">
+      <c r="E262">
+        <v>0.0405638438910001</v>
+      </c>
+      <c r="F262">
+        <v>-0.003804757848668294</v>
+      </c>
+      <c r="G262">
+        <v>-5.009798099997465e-05</v>
+      </c>
+      <c r="H262">
+        <v>0.04814748729631568</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8">
       <c r="A263" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B263">
         <v>-0.002019</v>
@@ -4970,10 +8096,22 @@
       <c r="D263">
         <v>-0.00326</v>
       </c>
-    </row>
-    <row r="264" spans="1:4">
+      <c r="E263">
+        <v>-0.001835658540000118</v>
+      </c>
+      <c r="F263">
+        <v>0.0371716057599154</v>
+      </c>
+      <c r="G263">
+        <v>-0.007052354338081712</v>
+      </c>
+      <c r="H263">
+        <v>-0.003309934661581915</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8">
       <c r="A264" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B264">
         <v>0.019195</v>
@@ -4984,10 +8122,22 @@
       <c r="D264">
         <v>0.017954</v>
       </c>
-    </row>
-    <row r="265" spans="1:4">
+      <c r="E264">
+        <v>0.01463546995999998</v>
+      </c>
+      <c r="F264">
+        <v>0.01608538404657267</v>
+      </c>
+      <c r="G264">
+        <v>0.05579298476972894</v>
+      </c>
+      <c r="H264">
+        <v>0.01077502769213234</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8">
       <c r="A265" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B265">
         <v>0.018847</v>
@@ -4998,10 +8148,22 @@
       <c r="D265">
         <v>0.017606</v>
       </c>
-    </row>
-    <row r="266" spans="1:4">
+      <c r="E265">
+        <v>0.03587609812400006</v>
+      </c>
+      <c r="F265">
+        <v>0.03249914204411586</v>
+      </c>
+      <c r="G265">
+        <v>0.03397458331809666</v>
+      </c>
+      <c r="H265">
+        <v>0.07438127605958478</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8">
       <c r="A266" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B266">
         <v>-0.08583300000000001</v>
@@ -5012,10 +8174,22 @@
       <c r="D266">
         <v>-0.08707400000000001</v>
       </c>
-    </row>
-    <row r="267" spans="1:4">
+      <c r="E266">
+        <v>-0.07100102484399995</v>
+      </c>
+      <c r="F266">
+        <v>-0.05432177724404907</v>
+      </c>
+      <c r="G266">
+        <v>-0.05740468825023348</v>
+      </c>
+      <c r="H266">
+        <v>-0.05605771954974326</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8">
       <c r="A267" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B267">
         <v>0.028134</v>
@@ -5026,10 +8200,22 @@
       <c r="D267">
         <v>0.026893</v>
       </c>
-    </row>
-    <row r="268" spans="1:4">
+      <c r="E267">
+        <v>-0.06252268108199999</v>
+      </c>
+      <c r="F267">
+        <v>-0.04601745540512958</v>
+      </c>
+      <c r="G267">
+        <v>-0.0288896527994732</v>
+      </c>
+      <c r="H267">
+        <v>-0.032055472531347</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8">
       <c r="A268" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B268">
         <v>-0.06769699999999999</v>
@@ -5040,10 +8226,22 @@
       <c r="D268">
         <v>-0.068938</v>
       </c>
-    </row>
-    <row r="269" spans="1:4">
+      <c r="E268">
+        <v>-0.04389894963399987</v>
+      </c>
+      <c r="F268">
+        <v>-0.127150492493569</v>
+      </c>
+      <c r="G268">
+        <v>-0.1117831040644107</v>
+      </c>
+      <c r="H268">
+        <v>-0.09583605791478311</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8">
       <c r="A269" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B269">
         <v>-0.076789</v>
@@ -5054,10 +8252,22 @@
       <c r="D269">
         <v>-0.07803</v>
       </c>
-    </row>
-    <row r="270" spans="1:4">
+      <c r="E269">
+        <v>-0.14158876786</v>
+      </c>
+      <c r="F269">
+        <v>-0.1185035145940589</v>
+      </c>
+      <c r="G269">
+        <v>-0.1952589395642959</v>
+      </c>
+      <c r="H269">
+        <v>-0.1810906684542648</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8">
       <c r="A270" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B270">
         <v>0.051419</v>
@@ -5068,10 +8278,22 @@
       <c r="D270">
         <v>0.050178</v>
       </c>
-    </row>
-    <row r="271" spans="1:4">
+      <c r="E270">
+        <v>-0.03176738934000001</v>
+      </c>
+      <c r="F270">
+        <v>-0.09851540905367895</v>
+      </c>
+      <c r="G270">
+        <v>-0.07427178394935963</v>
+      </c>
+      <c r="H270">
+        <v>-0.1548786426337531</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8">
       <c r="A271" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="B271">
         <v>0.087341</v>
@@ -5082,10 +8304,22 @@
       <c r="D271">
         <v>0.0861</v>
       </c>
-    </row>
-    <row r="272" spans="1:4">
+      <c r="E271">
+        <v>0.1405983258000001</v>
+      </c>
+      <c r="F271">
+        <v>0.05159743843782616</v>
+      </c>
+      <c r="G271">
+        <v>-0.02089758577320067</v>
+      </c>
+      <c r="H271">
+        <v>0.005433415452600565</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8">
       <c r="A272" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B272">
         <v>-0.030128</v>
@@ -5096,10 +8330,22 @@
       <c r="D272">
         <v>-0.031369</v>
       </c>
-    </row>
-    <row r="273" spans="1:4">
+      <c r="E272">
+        <v>0.05203012910000004</v>
+      </c>
+      <c r="F272">
+        <v>0.10481889691798</v>
+      </c>
+      <c r="G272">
+        <v>0.0186098783914701</v>
+      </c>
+      <c r="H272">
+        <v>-0.0516110494050811</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8">
       <c r="A273" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B273">
         <v>-0.019634</v>
@@ -5110,10 +8356,22 @@
       <c r="D273">
         <v>-0.020875</v>
       </c>
-    </row>
-    <row r="274" spans="1:4">
+      <c r="E273">
+        <v>-0.05158917212499992</v>
+      </c>
+      <c r="F273">
+        <v>0.03006900015503766</v>
+      </c>
+      <c r="G273">
+        <v>0.08175580244481706</v>
+      </c>
+      <c r="H273">
+        <v>-0.002653602819951861</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8">
       <c r="A274" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B274">
         <v>-0.064646</v>
@@ -5124,10 +8382,22 @@
       <c r="D274">
         <v>-0.065887</v>
       </c>
-    </row>
-    <row r="275" spans="1:4">
+      <c r="E274">
+        <v>-0.08538660887500005</v>
+      </c>
+      <c r="F274">
+        <v>-0.1140771163412001</v>
+      </c>
+      <c r="G274">
+        <v>-0.0377991560581773</v>
+      </c>
+      <c r="H274">
+        <v>0.01048215788913542</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8">
       <c r="A275" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B275">
         <v>-0.041234</v>
@@ -5138,10 +8408,22 @@
       <c r="D275">
         <v>-0.042599</v>
       </c>
-    </row>
-    <row r="276" spans="1:4">
+      <c r="E275">
+        <v>-0.1056792796870001</v>
+      </c>
+      <c r="F275">
+        <v>-0.124348224723534</v>
+      </c>
+      <c r="G275">
+        <v>-0.1518165452621814</v>
+      </c>
+      <c r="H275">
+        <v>-0.07878794980925508</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8">
       <c r="A276" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B276">
         <v>0.08952599999999999</v>
@@ -5152,10 +8434,22 @@
       <c r="D276">
         <v>0.08816099999999999</v>
       </c>
-    </row>
-    <row r="277" spans="1:4">
+      <c r="E276">
+        <v>0.04180642956099989</v>
+      </c>
+      <c r="F276">
+        <v>-0.02683507066348578</v>
+      </c>
+      <c r="G276">
+        <v>-0.04714988856338553</v>
+      </c>
+      <c r="H276">
+        <v>-0.0770398437090406</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8">
       <c r="A277" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="B277">
         <v>-0.016763</v>
@@ -5166,10 +8460,22 @@
       <c r="D277">
         <v>-0.018128</v>
       </c>
-    </row>
-    <row r="278" spans="1:4">
+      <c r="E277">
+        <v>0.06843481739199997</v>
+      </c>
+      <c r="F277">
+        <v>0.02292056260591813</v>
+      </c>
+      <c r="G277">
+        <v>-0.04447660450249813</v>
+      </c>
+      <c r="H277">
+        <v>-0.06442315538350851</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8">
       <c r="A278" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B278">
         <v>0.064371</v>
@@ -5180,10 +8486,22 @@
       <c r="D278">
         <v>0.06300599999999999</v>
       </c>
-    </row>
-    <row r="279" spans="1:4">
+      <c r="E278">
+        <v>0.04373582723199987</v>
+      </c>
+      <c r="F278">
+        <v>0.1357526214966003</v>
+      </c>
+      <c r="G278">
+        <v>0.08737069557346655</v>
+      </c>
+      <c r="H278">
+        <v>0.01572710255421739</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8">
       <c r="A279" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B279">
         <v>0.004072</v>
@@ -5194,10 +8512,22 @@
       <c r="D279">
         <v>0.002707</v>
       </c>
-    </row>
-    <row r="280" spans="1:4">
+      <c r="E279">
+        <v>0.06588355724200001</v>
+      </c>
+      <c r="F279">
+        <v>0.0465612201163168</v>
+      </c>
+      <c r="G279">
+        <v>0.1388271038429916</v>
+      </c>
+      <c r="H279">
+        <v>0.0903142080463839</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8">
       <c r="A280" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="B280">
         <v>-0.005681</v>
@@ -5208,10 +8538,22 @@
       <c r="D280">
         <v>-0.007046</v>
       </c>
-    </row>
-    <row r="281" spans="1:4">
+      <c r="E280">
+        <v>-0.004358073522000017</v>
+      </c>
+      <c r="F280">
+        <v>0.05837334169767283</v>
+      </c>
+      <c r="G280">
+        <v>0.0391871497593772</v>
+      </c>
+      <c r="H280">
+        <v>0.1308029280693139</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8">
       <c r="A281" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="B281">
         <v>-0.001596</v>
@@ -5222,10 +8564,22 @@
       <c r="D281">
         <v>-0.002961</v>
       </c>
-    </row>
-    <row r="282" spans="1:4">
+      <c r="E281">
+        <v>-0.009986136793999956</v>
+      </c>
+      <c r="F281">
+        <v>-0.007306169266301343</v>
+      </c>
+      <c r="G281">
+        <v>0.05523949823290608</v>
+      </c>
+      <c r="H281">
+        <v>0.0361101166089397</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8">
       <c r="A282" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="B282">
         <v>-0.032943</v>
@@ -5236,10 +8590,22 @@
       <c r="D282">
         <v>-0.034308</v>
       </c>
-    </row>
-    <row r="283" spans="1:4">
+      <c r="E282">
+        <v>-0.03716741401199997</v>
+      </c>
+      <c r="F282">
+        <v>-0.04395153241287142</v>
+      </c>
+      <c r="G282">
+        <v>-0.04136350921111309</v>
+      </c>
+      <c r="H282">
+        <v>0.01903634152753164</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8">
       <c r="A283" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B283">
         <v>0.017321</v>
@@ -5250,10 +8616,22 @@
       <c r="D283">
         <v>0.015956</v>
       </c>
-    </row>
-    <row r="284" spans="1:4">
+      <c r="E283">
+        <v>-0.01889941844799992</v>
+      </c>
+      <c r="F283">
+        <v>-0.02180445726997537</v>
+      </c>
+      <c r="G283">
+        <v>-0.02869682306405108</v>
+      </c>
+      <c r="H283">
+        <v>-0.02606750536408553</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8">
       <c r="A284" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B284">
         <v>0.036769</v>
@@ -5264,10 +8642,22 @@
       <c r="D284">
         <v>0.035404</v>
       </c>
-    </row>
-    <row r="285" spans="1:4">
+      <c r="E284">
+        <v>0.05192490622400014</v>
+      </c>
+      <c r="F284">
+        <v>0.015835466541267</v>
+      </c>
+      <c r="G284">
+        <v>0.01282757772483833</v>
+      </c>
+      <c r="H284">
+        <v>0.005691194612189143</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8">
       <c r="A285" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B285">
         <v>-0.05557</v>
@@ -5278,10 +8668,22 @@
       <c r="D285">
         <v>-0.056935</v>
       </c>
-    </row>
-    <row r="286" spans="1:4">
+      <c r="E285">
+        <v>-0.02354672673999991</v>
+      </c>
+      <c r="F285">
+        <v>-0.007966438311863278</v>
+      </c>
+      <c r="G285">
+        <v>-0.04200112574626003</v>
+      </c>
+      <c r="H285">
+        <v>-0.04483776041292531</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8">
       <c r="A286" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="B286">
         <v>-0.005689</v>
@@ -5292,10 +8694,22 @@
       <c r="D286">
         <v>-0.006972</v>
       </c>
-    </row>
-    <row r="287" spans="1:4">
+      <c r="E286">
+        <v>-0.06351004917999992</v>
+      </c>
+      <c r="F286">
+        <v>-0.03035455896116857</v>
+      </c>
+      <c r="G286">
+        <v>-0.0148828963039529</v>
+      </c>
+      <c r="H286">
+        <v>-0.04868029389755713</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8">
       <c r="A287" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B287">
         <v>-0.026321</v>
@@ -5306,10 +8720,22 @@
       <c r="D287">
         <v>-0.027604</v>
       </c>
-    </row>
-    <row r="288" spans="1:4">
+      <c r="E287">
+        <v>-0.03438354491199991</v>
+      </c>
+      <c r="F287">
+        <v>-0.08936091778243516</v>
+      </c>
+      <c r="G287">
+        <v>-0.05712065171560443</v>
+      </c>
+      <c r="H287">
+        <v>-0.04207606883437853</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8">
       <c r="A288" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B288">
         <v>0.00179</v>
@@ -5320,10 +8746,22 @@
       <c r="D288">
         <v>0.0005069999999999999</v>
       </c>
-    </row>
-    <row r="289" spans="1:4">
+      <c r="E288">
+        <v>-0.02711099522799998</v>
+      </c>
+      <c r="F288">
+        <v>-0.03389397736927025</v>
+      </c>
+      <c r="G288">
+        <v>-0.08889922376775083</v>
+      </c>
+      <c r="H288">
+        <v>-0.05664261188602426</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8">
       <c r="A289" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="B289">
         <v>-0.020003</v>
@@ -5334,10 +8772,22 @@
       <c r="D289">
         <v>-0.021286</v>
       </c>
-    </row>
-    <row r="290" spans="1:4">
+      <c r="E289">
+        <v>-0.02078979200200004</v>
+      </c>
+      <c r="F289">
+        <v>-0.04781991058357682</v>
+      </c>
+      <c r="G289">
+        <v>-0.05445851016698799</v>
+      </c>
+      <c r="H289">
+        <v>-0.1082929148906305</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8">
       <c r="A290" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B290">
         <v>-0.085304</v>
@@ -5348,10 +8798,22 @@
       <c r="D290">
         <v>-0.08658700000000001</v>
       </c>
-    </row>
-    <row r="291" spans="1:4">
+      <c r="E290">
+        <v>-0.106029909118</v>
+      </c>
+      <c r="F290">
+        <v>-0.1055766662819229</v>
+      </c>
+      <c r="G290">
+        <v>-0.1302663279858767</v>
+      </c>
+      <c r="H290">
+        <v>-0.136330111147159</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8">
       <c r="A291" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="B291">
         <v>0.086599</v>
@@ -5362,10 +8824,22 @@
       <c r="D291">
         <v>0.08531599999999999</v>
       </c>
-    </row>
-    <row r="292" spans="1:4">
+      <c r="E291">
+        <v>-0.008658256492000027</v>
+      </c>
+      <c r="F291">
+        <v>-0.02975995684431132</v>
+      </c>
+      <c r="G291">
+        <v>-0.02926804514243142</v>
+      </c>
+      <c r="H291">
+        <v>-0.05606413002431976</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8">
       <c r="A292" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="B292">
         <v>0.016715</v>
@@ -5376,10 +8850,22 @@
       <c r="D292">
         <v>0.015515</v>
       </c>
-    </row>
-    <row r="293" spans="1:4">
+      <c r="E292">
+        <v>0.10215467774</v>
+      </c>
+      <c r="F292">
+        <v>0.006722410658526634</v>
+      </c>
+      <c r="G292">
+        <v>-0.01470668257475083</v>
+      </c>
+      <c r="H292">
+        <v>-0.01420713886281633</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8">
       <c r="A293" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B293">
         <v>0.016724</v>
@@ -5390,10 +8876,22 @@
       <c r="D293">
         <v>0.015524</v>
       </c>
-    </row>
-    <row r="294" spans="1:4">
+      <c r="E293">
+        <v>0.03127985485999996</v>
+      </c>
+      <c r="F293">
+        <v>0.1192645269572359</v>
+      </c>
+      <c r="G293">
+        <v>0.02235076936158964</v>
+      </c>
+      <c r="H293">
+        <v>0.0005890108849588849</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8">
       <c r="A294" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B294">
         <v>-0.007371</v>
@@ -5404,10 +8902,22 @@
       <c r="D294">
         <v>-0.008571</v>
       </c>
-    </row>
-    <row r="295" spans="1:4">
+      <c r="E294">
+        <v>0.00681994379600015</v>
+      </c>
+      <c r="F294">
+        <v>0.02244075522399491</v>
+      </c>
+      <c r="G294">
+        <v>0.1096713106966853</v>
+      </c>
+      <c r="H294">
+        <v>0.01358820091739155</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8">
       <c r="A295" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="B295">
         <v>-0.039499</v>
@@ -5418,10 +8928,22 @@
       <c r="D295">
         <v>-0.040699</v>
       </c>
-    </row>
-    <row r="296" spans="1:4">
+      <c r="E295">
+        <v>-0.04892116887100006</v>
+      </c>
+      <c r="F295">
+        <v>-0.03415662109655326</v>
+      </c>
+      <c r="G295">
+        <v>-0.01917156107286655</v>
+      </c>
+      <c r="H295">
+        <v>0.06450879802264087</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8">
       <c r="A296" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="B296">
         <v>0.00056</v>
@@ -5432,10 +8954,22 @@
       <c r="D296">
         <v>-0.0006399999999999999</v>
       </c>
-    </row>
-    <row r="297" spans="1:4">
+      <c r="E296">
+        <v>-0.04131295264000001</v>
+      </c>
+      <c r="F296">
+        <v>-0.04952985932292264</v>
+      </c>
+      <c r="G296">
+        <v>-0.0347747608590514</v>
+      </c>
+      <c r="H296">
+        <v>-0.01979929127377988</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8">
       <c r="A297" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="B297">
         <v>-0.031468</v>
@@ -5446,10 +8980,22 @@
       <c r="D297">
         <v>-0.032586</v>
       </c>
-    </row>
-    <row r="298" spans="1:4">
+      <c r="E297">
+        <v>-0.03320514495999993</v>
+      </c>
+      <c r="F297">
+        <v>-0.07255272876527297</v>
+      </c>
+      <c r="G297">
+        <v>-0.0805018793270259</v>
+      </c>
+      <c r="H297">
+        <v>-0.06622759050169835</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8">
       <c r="A298" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="B298">
         <v>0.195992</v>
@@ -5460,10 +9006,22 @@
       <c r="D298">
         <v>0.194874</v>
       </c>
-    </row>
-    <row r="299" spans="1:4">
+      <c r="E298">
+        <v>0.155937835836</v>
+      </c>
+      <c r="F298">
+        <v>0.1551980356210649</v>
+      </c>
+      <c r="G298">
+        <v>0.1081826307693232</v>
+      </c>
+      <c r="H298">
+        <v>0.09868439744099922</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8">
       <c r="A299" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B299">
         <v>-0.003409</v>
@@ -5474,10 +9032,22 @@
       <c r="D299">
         <v>-0.004527</v>
       </c>
-    </row>
-    <row r="300" spans="1:4">
+      <c r="E299">
+        <v>0.1894648054020001</v>
+      </c>
+      <c r="F299">
+        <v>0.1507049052531704</v>
+      </c>
+      <c r="G299">
+        <v>0.1499684541138084</v>
+      </c>
+      <c r="H299">
+        <v>0.1031658879998305</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8">
       <c r="A300" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="B300">
         <v>0.009724</v>
@@ -5488,10 +9058,22 @@
       <c r="D300">
         <v>0.008605999999999999</v>
       </c>
-    </row>
-    <row r="301" spans="1:4">
+      <c r="E300">
+        <v>0.004040040637999898</v>
+      </c>
+      <c r="F300">
+        <v>0.1997013395172895</v>
+      </c>
+      <c r="G300">
+        <v>0.160607871667779</v>
+      </c>
+      <c r="H300">
+        <v>0.1598650826299117</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8">
       <c r="A301" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="B301">
         <v>-0.002679</v>
@@ -5501,6 +9083,18 @@
       </c>
       <c r="D301">
         <v>-0.003797</v>
+      </c>
+      <c r="E301">
+        <v>0.004776323017999795</v>
+      </c>
+      <c r="F301">
+        <v>0.0002277006036972562</v>
+      </c>
+      <c r="G301">
+        <v>0.1951460735311423</v>
+      </c>
+      <c r="H301">
+        <v>0.1562010435790564</v>
       </c>
     </row>
   </sheetData>
